--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1094B4-D8CF-4E67-B39E-880076669FF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B22BB-6609-4DD2-87A1-8E16347A6554}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="191">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1311,54 +1311,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>面積と室用途を
-入力する方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積を
-入力する方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積を
-入力しない方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1812,6 +1764,176 @@
   <si>
     <t>1:eta_d_value_directly
 2:specification</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力方法</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を
+用いない方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を
+用いる方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を用い
+室用途を
+入力する方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:指標（UA値・ηAH値・ηAC値）入力
+2:面積等を用いない方法
+3:面積等を用い室用途は入力しない方法
+4:面積等を用い室用途を入力する方法</t>
+    <rPh sb="2" eb="4">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:index
+2:simple
+3:detail_without_room_usage
+4:detail_with_room_usage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>decimal</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1953,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1989,6 +2111,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2270,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R74"/>
+  <dimension ref="A2:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2282,7 +2407,7 @@
     <col min="3" max="5" width="3.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="37.9375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.1875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.3125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.5625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.8125" style="4" bestFit="1" customWidth="1"/>
@@ -2294,7 +2419,7 @@
     <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="35.25">
+    <row r="2" spans="1:18" ht="52.9">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -2333,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2365,10 +2490,10 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R3" s="6"/>
     </row>
@@ -2407,10 +2532,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R4" s="6"/>
     </row>
@@ -2449,10 +2574,10 @@
         <v>12</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R5" s="6"/>
     </row>
@@ -2491,10 +2616,10 @@
         <v>12</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R6" s="6"/>
     </row>
@@ -2533,10 +2658,10 @@
         <v>12</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R7" s="6"/>
     </row>
@@ -2549,10 +2674,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1"/>
@@ -2566,73 +2691,71 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:18" ht="70.5">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="35.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="52.9">
+    <row r="11" spans="1:18" ht="35.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="1" t="s">
@@ -2641,38 +2764,36 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="O11" s="6"/>
       <c r="P11" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="52.9">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
@@ -2681,31 +2802,33 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6">
-        <v>2</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="P12" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -2719,10 +2842,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2743,7 +2866,7 @@
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -2757,10 +2880,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2781,7 +2904,7 @@
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2795,10 +2918,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2819,7 +2942,7 @@
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2833,10 +2956,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2855,11 +2978,9 @@
       <c r="N16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="O16" s="6"/>
       <c r="P16" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -2873,10 +2994,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2895,16 +3016,16 @@
       <c r="N17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>116</v>
+      <c r="O17" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="35.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
@@ -2913,36 +3034,38 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="5" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="P18" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="35.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
@@ -2951,33 +3074,31 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J19" s="5" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2991,10 +3112,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -3014,10 +3135,10 @@
         <v>110</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -3031,10 +3152,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -3054,10 +3175,10 @@
         <v>110</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -3071,29 +3192,33 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="5" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="6">
-        <v>3</v>
-      </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="P22" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -3107,10 +3232,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -3129,12 +3254,12 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" ht="35.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="1" t="s">
@@ -3143,36 +3268,34 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="35.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="1" t="s">
@@ -3181,31 +3304,31 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="J25" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -3219,10 +3342,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -3243,70 +3366,78 @@
         <v>124</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="J27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="6">
+        <v>3</v>
+      </c>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="O27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="105.75">
+    <row r="29" spans="1:18">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -3315,32 +3446,24 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1</v>
-      </c>
-      <c r="K29" s="6">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R29" s="6"/>
     </row>
@@ -3353,16 +3476,16 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J30" s="6">
         <v>1</v>
@@ -3378,11 +3501,11 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" ht="229.15">
+    <row r="31" spans="1:18" ht="105.75">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -3391,38 +3514,36 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J31" s="6">
         <v>1</v>
       </c>
       <c r="K31" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="229.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -3431,32 +3552,34 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>13</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="6">
-        <v>2</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R32" s="6"/>
     </row>
@@ -3469,60 +3592,60 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="6">
+        <v>2</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18" ht="70.5">
+    <row r="34" spans="1:18">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="6">
-        <v>3</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R34" s="6"/>
     </row>
@@ -3535,38 +3658,36 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="6">
         <v>1</v>
       </c>
       <c r="K35" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" ht="70.5">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3575,38 +3696,38 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>44</v>
+        <v>157</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>4</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="6">
-        <v>2</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" ht="35.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3615,94 +3736,104 @@
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1</v>
-      </c>
-      <c r="K37" s="6">
+        <v>86</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="6">
         <v>2</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" ht="35.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" ht="105.75">
+    <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
@@ -3711,36 +3842,28 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" ht="229.15">
+    <row r="41" spans="1:18" ht="105.75">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
@@ -3749,38 +3872,36 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
       </c>
       <c r="K41" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" ht="229.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
@@ -3789,32 +3910,34 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <v>13</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="6">
-        <v>2</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O42" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R42" s="6"/>
     </row>
@@ -3827,45 +3950,51 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" s="6">
+        <v>2</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" ht="35.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -3874,11 +4003,11 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" ht="35.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3887,13 +4016,17 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -3901,26 +4034,26 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="Q45" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:18" ht="35.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3932,7 +4065,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="35.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -3941,36 +4074,26 @@
         <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="6">
-        <v>2</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="35.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -3979,36 +4102,36 @@
         <v>14</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1</v>
-      </c>
-      <c r="K48" s="6">
+        <v>128</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="6">
         <v>2</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" ht="35.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4017,26 +4140,36 @@
         <v>14</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="1:18" ht="52.9">
+    <row r="50" spans="1:18">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4045,58 +4178,50 @@
         <v>14</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6">
-        <v>3</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
+      <c r="Q50" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="70.5">
+    <row r="51" spans="1:18" ht="52.9">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>176</v>
+        <v>129</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="J51" s="6">
         <v>1</v>
       </c>
       <c r="K51" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>11</v>
@@ -4108,7 +4233,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="1:18" ht="35.25">
+    <row r="52" spans="1:18" ht="70.5">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4117,22 +4242,22 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
       </c>
       <c r="K52" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>11</v>
@@ -4144,7 +4269,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" ht="35.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -4153,58 +4278,58 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
-      <c r="Q53" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="G54" s="6" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M54" s="6">
-        <v>2</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R54" s="6"/>
     </row>
@@ -4218,7 +4343,7 @@
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -4235,12 +4360,12 @@
         <v>2</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R55" s="6"/>
     </row>
@@ -4254,7 +4379,7 @@
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -4271,72 +4396,78 @@
         <v>2</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+      <c r="J57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" s="6">
+        <v>2</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:18" ht="105.75">
+    <row r="59" spans="1:18">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
@@ -4345,36 +4476,28 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="6">
-        <v>1</v>
-      </c>
-      <c r="K59" s="6">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="1:18" ht="229.15">
+    <row r="60" spans="1:18" ht="105.75">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
@@ -4383,38 +4506,36 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J60" s="6">
         <v>1</v>
       </c>
       <c r="K60" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" ht="229.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
@@ -4423,32 +4544,34 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6">
+        <v>13</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M61" s="6">
-        <v>2</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O61" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R61" s="6"/>
     </row>
@@ -4461,64 +4584,64 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
+      <c r="J62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="6">
+        <v>2</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M63" s="6">
-        <v>2</v>
-      </c>
-      <c r="N63" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" ht="35.25">
+    <row r="64" spans="1:18">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -4527,92 +4650,100 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J64" s="6">
-        <v>1</v>
-      </c>
-      <c r="K64" s="6">
+        <v>128</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="6">
         <v>2</v>
       </c>
-      <c r="L64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="N64" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R64" s="6"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" ht="35.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>2</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="1:18" ht="105.75">
+    <row r="67" spans="1:18">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
@@ -4621,36 +4752,28 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1</v>
-      </c>
-      <c r="K67" s="6">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="1:18" ht="229.15">
+    <row r="68" spans="1:18" ht="105.75">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
@@ -4659,38 +4782,36 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
       </c>
       <c r="K68" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" ht="229.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
@@ -4699,32 +4820,34 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6">
+        <v>13</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M69" s="6">
-        <v>2</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O69" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R69" s="6"/>
     </row>
@@ -4737,36 +4860,48 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M70" s="6">
+        <v>2</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R70" s="6"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="C71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="G71" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -4778,22 +4913,22 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="6"/>
-      <c r="B72" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -4804,20 +4939,20 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -4830,7 +4965,7 @@
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R73" s="6"/>
     </row>
@@ -4843,7 +4978,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -4856,9 +4991,35 @@
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R74" s="6"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R75" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B22BB-6609-4DD2-87A1-8E16347A6554}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C29FEC-96DD-49BB-BF2C-F0217C334B61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1523,13 +1523,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:u_value_directly
-2:details_method
-3:area_ratio_method
-4:r_corrected_mothod</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>窓の種類</t>
     <rPh sb="0" eb="1">
       <t>マド</t>
@@ -1934,6 +1927,13 @@
   </si>
   <si>
     <t>decimal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:u_value_directly
+2:detail_method
+3:area_ratio_method
+4:r_corrected_mothod</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2100,6 +2100,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2111,9 +2114,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2397,15 +2397,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="2" width="3.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.1875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.1875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.3125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.5625" style="4" bestFit="1" customWidth="1"/>
@@ -2420,13 +2420,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="52.9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2458,13 +2458,13 @@
         <v>6</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2700,25 +2700,25 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="1"/>
@@ -3696,13 +3696,13 @@
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="H36" s="3" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>70</v>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>127</v>
@@ -4048,10 +4048,10 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -4074,13 +4074,13 @@
         <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="6"/>
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>128</v>
@@ -4140,13 +4140,13 @@
         <v>14</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>152</v>
@@ -4178,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>151</v>
@@ -4206,16 +4206,16 @@
         <v>14</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>129</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J51" s="6">
         <v>1</v>
@@ -4242,16 +4242,16 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="J52" s="6">
         <v>1</v>
@@ -4278,16 +4278,16 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>111</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J53" s="6">
         <v>1</v>
@@ -4314,10 +4314,10 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -4396,7 +4396,7 @@
         <v>2</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -4432,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>128</v>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C29FEC-96DD-49BB-BF2C-F0217C334B61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C287E9-C35E-4606-A9FB-1F57037602D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1934,6 +1934,24 @@
 2:detail_method
 3:area_ratio_method
 4:r_corrected_mothod</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>doors</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>earthfloor_perimeters</t>
+  </si>
+  <si>
+    <t>earthfloor_centers</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>area</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2397,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -4452,7 +4470,9 @@
       <c r="F58" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -4728,7 +4748,9 @@
       <c r="F66" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -4954,7 +4976,9 @@
       <c r="F73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -4980,7 +5004,9 @@
       <c r="F74" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -5006,7 +5032,9 @@
       <c r="F75" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F94066-64CF-4174-9AF5-B4C29EA96E8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DEAA2-CA80-4D6A-9A11-1B1B4613B2F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="225">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2058,13 +2058,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:main_occupant_room
-2:other_occupant_room
-3:non_occupant_room
-4:under_floor</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上側に接する室の用途</t>
     <rPh sb="0" eb="1">
       <t>ウエ</t>
@@ -2101,10 +2094,6 @@
   </si>
   <si>
     <t>upper_space_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>under_space_type</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2260,6 +2249,25 @@
     <rPh sb="12" eb="13">
       <t>ガワ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>space_type_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>speace_type_2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lower_space_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:main_occupant_room
+2:other_occupant_room
+3:non_occupant_room
+4:underfloor</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2437,12 +2445,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2455,14 +2457,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2747,10 +2755,10 @@
   <dimension ref="A2:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2772,50 +2780,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="52.9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2835,15 +2843,15 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="141">
       <c r="A4" s="1"/>
@@ -3041,15 +3049,15 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="10"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="70.5">
       <c r="A9" s="1"/>
@@ -3119,9 +3127,9 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="35.25">
       <c r="A11" s="1"/>
@@ -3823,9 +3831,9 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1"/>
@@ -4052,7 +4060,7 @@
         <v>187</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>188</v>
@@ -4101,9 +4109,9 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="70.5">
       <c r="A36" s="1"/>
@@ -4303,9 +4311,9 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1"/>
@@ -4488,7 +4496,7 @@
         <v>187</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>188</v>
@@ -4537,9 +4545,9 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="35.25">
       <c r="A47" s="1"/>
@@ -4607,9 +4615,9 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" ht="35.25">
       <c r="A49" s="1"/>
@@ -4931,9 +4939,9 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1"/>
@@ -5077,9 +5085,9 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1"/>
@@ -5262,7 +5270,7 @@
         <v>187</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>188</v>
@@ -5305,15 +5313,15 @@
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1"/>
@@ -5421,9 +5429,9 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1"/>
@@ -5606,7 +5614,7 @@
         <v>187</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>188</v>
@@ -5655,9 +5663,9 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1"/>
@@ -5721,9 +5729,9 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1"/>
@@ -5816,7 +5824,7 @@
         <v>187</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>188</v>
@@ -5865,9 +5873,9 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1"/>
@@ -5946,13 +5954,13 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>188</v>
@@ -5986,13 +5994,13 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>188</v>
@@ -6039,9 +6047,9 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1"/>
@@ -6052,10 +6060,10 @@
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -6065,9 +6073,9 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1"/>
@@ -6078,10 +6086,10 @@
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6110,16 +6118,16 @@
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -6150,26 +6158,26 @@
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="12">
+      <c r="J90" s="9">
         <v>1E-3</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90" s="9">
         <v>999.99900000000002</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="10">
         <v>3</v>
       </c>
-      <c r="N90" s="12" t="s">
+      <c r="N90" s="9" t="s">
         <v>99</v>
       </c>
       <c r="O90" s="1"/>
@@ -6186,27 +6194,27 @@
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="12">
+      <c r="J91" s="9">
         <v>1E-4</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91" s="9">
         <v>9.9999000000000002</v>
       </c>
-      <c r="L91" s="12" t="s">
+      <c r="L91" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="10">
         <v>4</v>
       </c>
-      <c r="N91" s="12" t="s">
-        <v>219</v>
+      <c r="N91" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -6222,10 +6230,10 @@
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6242,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -6258,27 +6266,27 @@
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="12">
+      <c r="J93" s="9">
         <v>0</v>
       </c>
-      <c r="K93" s="12">
+      <c r="K93" s="9">
         <v>9999.9</v>
       </c>
-      <c r="L93" s="12" t="s">
+      <c r="L93" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="10">
         <v>1</v>
       </c>
-      <c r="N93" s="12" t="s">
-        <v>218</v>
+      <c r="N93" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -6307,9 +6315,9 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="1"/>
@@ -6391,10 +6399,10 @@
         <v>186</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>188</v>
@@ -6415,7 +6423,7 @@
         <v>183</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6433,10 +6441,10 @@
         <v>186</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>188</v>
@@ -6457,7 +6465,7 @@
         <v>183</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6485,9 +6493,9 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1"/>
@@ -6498,10 +6506,10 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -6511,9 +6519,9 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1"/>
@@ -6524,10 +6532,10 @@
         <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -6556,16 +6564,16 @@
         <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -6596,26 +6604,26 @@
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="12">
+      <c r="J103" s="9">
         <v>1E-3</v>
       </c>
-      <c r="K103" s="12">
+      <c r="K103" s="9">
         <v>999.99900000000002</v>
       </c>
-      <c r="L103" s="12" t="s">
+      <c r="L103" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M103" s="13">
+      <c r="M103" s="10">
         <v>3</v>
       </c>
-      <c r="N103" s="12" t="s">
+      <c r="N103" s="9" t="s">
         <v>99</v>
       </c>
       <c r="O103" s="1"/>
@@ -6632,27 +6640,27 @@
         <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="12">
+      <c r="J104" s="9">
         <v>1E-4</v>
       </c>
-      <c r="K104" s="12">
+      <c r="K104" s="9">
         <v>9.9999000000000002</v>
       </c>
-      <c r="L104" s="12" t="s">
+      <c r="L104" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M104" s="13">
+      <c r="M104" s="10">
         <v>4</v>
       </c>
-      <c r="N104" s="12" t="s">
-        <v>219</v>
+      <c r="N104" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -6668,10 +6676,10 @@
         <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6688,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -6704,27 +6712,27 @@
         <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="12">
+      <c r="J106" s="9">
         <v>0</v>
       </c>
-      <c r="K106" s="12">
+      <c r="K106" s="9">
         <v>9999.9</v>
       </c>
-      <c r="L106" s="12" t="s">
+      <c r="L106" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M106" s="13">
+      <c r="M106" s="10">
         <v>1</v>
       </c>
-      <c r="N106" s="12" t="s">
-        <v>218</v>
+      <c r="N106" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7DEAA2-CA80-4D6A-9A11-1B1B4613B2F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C235B4-6C2D-433C-8479-7FBA31E0D096}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,6 +424,1777 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1:入力する 
+2:入力しない</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般部位</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>general_parts</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>evlp_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:ceiling
+2:wall
+3:floor
+4:boundary_wall
+5:boundary_floor
+6:boundary_ceiling</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>構造種別</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:wood
+2:rc
+3:steel
+4:other</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:木造 
+2:鉄筋コンクリート造等 
+3:鉄骨造 
+4:その他/不明</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:U値を入力
+2:詳細計算法
+3:面積比率法
+4:熱貫流率補正法</t>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣接空間の種類</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>next_space</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:外気
+2:外気に通じる空間
+3:外気に通じていない空間
+4:外気に通じる床裏
+5:住戸及び住戸と同様の熱的環境の空間
+6:外気に通じていない床裏</t>
+    <rPh sb="2" eb="4">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジュウコ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジュウコ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ネツテキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:outdoor
+2:open_space
+3:closed_space
+4:open_underfloor
+5:air_conditioned
+6:closed_underfloor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>方位</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[隣接空間の種類]=1の場合、選択要素1～10
+[隣接空間の種類]=2～5の場合、選択要素11,12,13。
+「10:外気下面」～「13:外気以外下面」が選択された場合は日射なし、それ以外は日射ありとして扱う。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>小数点
+以下桁数</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>カンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u_value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[仕様の入力方法（木造）]＝１の場合に指定</t>
+    <rPh sb="9" eb="11">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[構造種別]=1の場合に指定</t>
+    <rPh sb="1" eb="3">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日除けの入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_sunshade_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:True
+2:False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドアの熱貫流率</t>
+    <rPh sb="3" eb="4">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u_value_door</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓の熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ネツカンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u_value_window</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暖房期の垂直面日射熱取得率</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイチョクメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冷房期の垂直面日射熱取得率</t>
+    <rPh sb="0" eb="3">
+      <t>レイボウキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイチョクメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_f_value_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eta_d_value_window_h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eta_d_value_window_c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暖房期の取得日射熱補正係数</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ホセイケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冷房期の取得日射熱補正係数</t>
+    <rPh sb="0" eb="2">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ホセイケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f_value_h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f_value_c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_psi_value_base_input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>W/mK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:True
+2:False</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得日射熱補正係数の指定</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ホセイケイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:指定する（個別に計算する）
+2:指定しない（既定値を使用する）</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関等の土間床等の外周部の線熱貫流率</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ドマユカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガイシュウブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浴室の土間床等の外周部の線熱貫流率</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドマユカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガイシュウブ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[断熱構造]=[1:床断熱]の場合</t>
+    <rPh sb="1" eb="3">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[断熱構造]=[1:床断熱]かつ[浴室の断熱構造]=[1:床断熱]の場合</t>
+    <rPh sb="1" eb="3">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ユカダンネツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ユカダンネツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>土間床等の外周部の指定</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:指定する
+2:指定しない（既定値を使用する）</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の土間床等の外周部の線熱貫流率</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ドマユカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガイシュウブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ネツカンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[土間床等の外周部の指定]=[1:指定する]の場合</t>
+    <rPh sb="1" eb="4">
+      <t>ドマユカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガイシュウブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[土間床等の外周部の指定]=[1:指定する]かつ[断熱構造]=[1:床断熱]かつ[浴室の断熱構造]=[2:基礎断熱]の場合</t>
+    <rPh sb="25" eb="27">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ユカダンネツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨクシツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[土間床等の外周部の指定]=[1:指定する]かつ[断熱構造]=[2:基礎断熱]の場合</t>
+    <rPh sb="25" eb="27">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キソ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ダンネツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[取得日射熱補正係数の指定]=[1:指定する]の場合</t>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大部分がガラスで構成される窓等の開口部</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カイコウブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>window_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u_vaue</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>glass_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:一重窓
+2:二重窓</t>
+    <rPh sb="2" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:single
+2:double</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psi_value_earthfloor_perimeter_entrance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psi_value_earthfloor_perimeter_bathroom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psi_value_earthfloor_perimeter_other</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大部分がガラスで構成されないドア等の開口部</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイコウブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>土間床等の外周部</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psi_value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>土間床等の中心部</t>
+    <rPh sb="0" eb="3">
+      <t>ドマユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>チュウシンブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外皮</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>envelope</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eta_d_value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:η値直接入力
+2:仕様入力</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓の種類</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>U値の入力方法（木造）</t>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u_value_input_method_wood</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:u_value_directly
+2:ug_value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>window1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>U値の入力方法</t>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u_value_input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>U値</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ηd値</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ηd値の入力方法</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓（1重窓又は2重窓の場合の室内側）</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウマド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シツナイガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガラス種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:single
+2:double
+3:triple_and_more</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:単層
+2:二層複層
+3:三層複層以上</t>
+    <rPh sb="2" eb="4">
+      <t>タンソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日除け</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>付属部材の種類</t>
+    <rPh sb="0" eb="2">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>attachment_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:none
+2:shutter
+3:amado
+4:shoji</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:付属部材なし 
+2:シャッター
+3:雨戸
+4:障子</t>
+    <rPh sb="2" eb="4">
+      <t>フゾク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アマド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>風除室の有無</t>
+    <rPh sb="0" eb="3">
+      <t>フウジョシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_windbreak_room_attached</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:風除室あり
+2:風除室なし</t>
+    <rPh sb="2" eb="5">
+      <t>フウジョシツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フウジョシツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sunshade</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eta_d_value_input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:eta_d_value_directly
+2:specification</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力方法</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を
+用いない方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を
+用いる方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>面積等を用い
+室用途を
+入力する方法</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:指標（UA値・ηAH値・ηAC値）入力
+2:面積等を用いない方法
+3:面積等を用い室用途は入力しない方法
+4:面積等を用い室用途を入力する方法</t>
+    <rPh sb="2" eb="4">
+      <t>シヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:index
+2:simple
+3:detail_without_room_usage
+4:detail_with_room_usage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:u_value_directly
+2:detail_method
+3:area_ratio_method
+4:r_corrected_mothod</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>doors</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>earthfloor_perimeters</t>
+  </si>
+  <si>
+    <t>earthfloor_centers</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>線熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>ネツカンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接する室の用途</t>
+    <rPh sb="0" eb="1">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>space_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:主たる居室
+2:その他の居室
+3:非居室
+4:床下空間</t>
+    <rPh sb="2" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョシツ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヒキョシツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユカシタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日除け下端から窓上端までの垂直方向の距離</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カタン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓の開口高さ寸法</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スンポウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>壁面からの日除けの張り出し寸法</t>
+    <rPh sb="0" eb="2">
+      <t>ヘキメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スンポウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>間仕切り床</t>
+    <rPh sb="0" eb="3">
+      <t>マジキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>間仕切り壁</t>
+    <rPh sb="0" eb="3">
+      <t>マジキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>inner_floors</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>inner_walls</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上側に接する室の用途</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下側に接する室の用途</t>
+    <rPh sb="0" eb="2">
+      <t>シタガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>upper_space_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>層</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>layers</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱伝導率</t>
+    <rPh sb="0" eb="4">
+      <t>ネツデンドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱抵抗</t>
+    <rPh sb="0" eb="3">
+      <t>ネツテイコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>容積比熱</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒネツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>厚さ</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱抵抗の入力方法</t>
+    <rPh sb="0" eb="3">
+      <t>ネツテイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heat_resistance_input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:conductivity
+2:resistance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:熱伝導率と厚さから入力する 
+2:熱抵抗を入力する</t>
+    <rPh sb="2" eb="3">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>デンドウリツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>thermal_resistance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>thermal_conductivity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>volumetric_specific_heat</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>J/LK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m2K/W</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>layerの番号の小さい側</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>layerの番号の大きい側</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>space_type_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>speace_type_2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>lower_space_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:main_occupant_room
+2:other_occupant_room
+3:non_occupant_room
+4:underfloor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:top
+2:n
+3:ne
+4:e
+5:se
+6:s
+7:sw
+8:w
+9:nw
+10:bottom
+11:upward
+12:horizontal
+13:downward</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>1:外気上面
 2:外気北 
 3:外気北東 
@@ -435,7 +2206,7 @@
 9:外気北西 
 10:外気下面
 11:外気以外上面
-12:外気以外鉛直面
+12:外気以外水平面
 13:外気以外下面</t>
     <rPh sb="2" eb="4">
       <t>ガイキ</t>
@@ -486,7 +2257,7 @@
       <t>メン</t>
     </rPh>
     <rPh sb="92" eb="94">
-      <t>エンチョク</t>
+      <t>スイヘイ</t>
     </rPh>
     <rPh sb="94" eb="95">
       <t>メン</t>
@@ -498,1777 +2269,6 @@
       <t>メン</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:入力する 
-2:入力しない</t>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一般部位</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>general_parts</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <rPh sb="0" eb="2">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>evlp_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:ceiling
-2:wall
-3:floor
-4:boundary_wall
-5:boundary_floor
-6:boundary_ceiling</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>構造種別</t>
-    <rPh sb="0" eb="2">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>structure</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:wood
-2:rc
-3:steel
-4:other</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:木造 
-2:鉄筋コンクリート造等 
-3:鉄骨造 
-4:その他/不明</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:U値を入力
-2:詳細計算法
-3:面積比率法
-4:熱貫流率補正法</t>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒリツ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>隣接空間の種類</t>
-    <rPh sb="0" eb="2">
-      <t>リンセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>next_space</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>仕様</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>spec</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:外気
-2:外気に通じる空間
-3:外気に通じていない空間
-4:外気に通じる床裏
-5:住戸及び住戸と同様の熱的環境の空間
-6:外気に通じていない床裏</t>
-    <rPh sb="2" eb="4">
-      <t>ガイキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガイキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガイキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ウラ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジュウコ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジュウコ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ネツテキ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>クウカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:outdoor
-2:open_space
-3:closed_space
-4:open_underfloor
-5:air_conditioned
-6:closed_underfloor</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>方位</t>
-    <rPh sb="0" eb="2">
-      <t>ホウイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>direction</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:top
-2:n
-3:ne
-4:e
-5:se
-6:s
-7:sw
-8:w
-9:nw
-10:bottom
-11:upward
-12:vertical
-13:downward</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[隣接空間の種類]=1の場合、選択要素1～10
-[隣接空間の種類]=2～5の場合、選択要素11,12,13。
-「10:外気下面」～「13:外気以外下面」が選択された場合は日射なし、それ以外は日射ありとして扱う。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>小数点
-以下桁数</t>
-    <rPh sb="0" eb="3">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>熱貫流率</t>
-    <rPh sb="0" eb="1">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>カンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u_value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[仕様の入力方法（木造）]＝１の場合に指定</t>
-    <rPh sb="9" eb="11">
-      <t>モクゾウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[構造種別]=1の場合に指定</t>
-    <rPh sb="1" eb="3">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日除けの入力</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヨ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_sunshade_input</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:True
-2:False</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ドアの熱貫流率</t>
-    <rPh sb="3" eb="4">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u_value_door</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窓の熱貫流率</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ネツカンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u_value_window</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>暖房期の垂直面日射熱取得率</t>
-    <rPh sb="0" eb="2">
-      <t>ダンボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>スイチョクメン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シュトクリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>冷房期の垂直面日射熱取得率</t>
-    <rPh sb="0" eb="3">
-      <t>レイボウキ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>スイチョクメン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シュトクリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_f_value_input</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>eta_d_value_window_h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>eta_d_value_window_c</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>暖房期の取得日射熱補正係数</t>
-    <rPh sb="0" eb="2">
-      <t>ダンボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ホセイケイスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>冷房期の取得日射熱補正係数</t>
-    <rPh sb="0" eb="2">
-      <t>レイボウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ホセイケイスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>f_value_h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>f_value_c</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_psi_value_base_input</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>W/mK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:True
-2:False</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>取得日射熱補正係数の指定</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ホセイケイスウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:指定する（個別に計算する）
-2:指定しない（既定値を使用する）</t>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キテイチ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄関等の土間床等の外周部の線熱貫流率</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ドマユカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガイシュウブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリュウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浴室の土間床等の外周部の線熱貫流率</t>
-    <rPh sb="0" eb="2">
-      <t>ヨクシツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ドマユカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ガイシュウブ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>カンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[断熱構造]=[1:床断熱]の場合</t>
-    <rPh sb="1" eb="3">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[断熱構造]=[1:床断熱]かつ[浴室の断熱構造]=[1:床断熱]の場合</t>
-    <rPh sb="1" eb="3">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ユカダンネツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨクシツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ユカダンネツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>土間床等の外周部の指定</t>
-    <rPh sb="0" eb="2">
-      <t>ドマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:指定する
-2:指定しない（既定値を使用する）</t>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>キテイチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他の土間床等の外周部の線熱貫流率</t>
-    <rPh sb="2" eb="3">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ドマユカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガイシュウブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ネツカンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[土間床等の外周部の指定]=[1:指定する]の場合</t>
-    <rPh sb="1" eb="4">
-      <t>ドマユカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガイシュウブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[土間床等の外周部の指定]=[1:指定する]かつ[断熱構造]=[1:床断熱]かつ[浴室の断熱構造]=[2:基礎断熱]の場合</t>
-    <rPh sb="25" eb="27">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ユカダンネツ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヨクシツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[土間床等の外周部の指定]=[1:指定する]かつ[断熱構造]=[2:基礎断熱]の場合</t>
-    <rPh sb="25" eb="27">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ダンネツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[取得日射熱補正係数の指定]=[1:指定する]の場合</t>
-    <rPh sb="18" eb="20">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>大部分がガラスで構成される窓等の開口部</t>
-    <rPh sb="0" eb="3">
-      <t>ダイブブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カイコウブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>window_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u_vaue</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>glass_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>y1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>y2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:一重窓
-2:二重窓</t>
-    <rPh sb="2" eb="3">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニジュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1:single
-2:double</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psi_value_earthfloor_perimeter_entrance</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psi_value_earthfloor_perimeter_bathroom</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psi_value_earthfloor_perimeter_other</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>大部分がガラスで構成されないドア等の開口部</t>
-    <rPh sb="0" eb="3">
-      <t>ダイブブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>カイコウブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>土間床等の外周部</t>
-    <rPh sb="0" eb="2">
-      <t>ドマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長さ</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>仕様</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>spec</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psi_value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>土間床等の中心部</t>
-    <rPh sb="0" eb="3">
-      <t>ドマユカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>チュウシンブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外皮</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>envelope</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>eta_d_value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:η値直接入力
-2:仕様入力</t>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窓の種類</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>U値の入力方法（木造）</t>
-    <rPh sb="1" eb="2">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モクゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u_value_input_method_wood</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:u_value_directly
-2:ug_value</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>window1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>U値の入力方法</t>
-    <rPh sb="1" eb="2">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>u_value_input_method</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>U値</t>
-    <rPh sb="1" eb="2">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ηd値</t>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ηd値の入力方法</t>
-    <rPh sb="2" eb="3">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窓（1重窓又は2重窓の場合の室内側）</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュウマド</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シツナイガワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ガラス種類</t>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:single
-2:double
-3:triple_and_more</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:単層
-2:二層複層
-3:三層複層以上</t>
-    <rPh sb="2" eb="4">
-      <t>タンソウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニソウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フクソウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サンソウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フクソウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日除け</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヨ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>付属部材の種類</t>
-    <rPh sb="0" eb="2">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブザイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>attachment_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:none
-2:shutter
-3:amado
-4:shoji</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:付属部材なし 
-2:シャッター
-3:雨戸
-4:障子</t>
-    <rPh sb="2" eb="4">
-      <t>フゾク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブザイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>アマド</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>風除室の有無</t>
-    <rPh sb="0" eb="3">
-      <t>フウジョシツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_windbreak_room_attached</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:風除室あり
-2:風除室なし</t>
-    <rPh sb="2" eb="5">
-      <t>フウジョシツ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>フウジョシツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>sunshade</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>eta_d_value_input_method</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:eta_d_value_directly
-2:specification</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力方法</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>input_method</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積等を
-用いない方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積等を
-用いる方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>面積等を用い
-室用途を
-入力する方法</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:指標（UA値・ηAH値・ηAC値）入力
-2:面積等を用いない方法
-3:面積等を用い室用途は入力しない方法
-4:面積等を用い室用途を入力する方法</t>
-    <rPh sb="2" eb="4">
-      <t>シヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>メンセキ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヨウト</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:index
-2:simple
-3:detail_without_room_usage
-4:detail_with_room_usage</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:u_value_directly
-2:detail_method
-3:area_ratio_method
-4:r_corrected_mothod</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>doors</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>earthfloor_perimeters</t>
-  </si>
-  <si>
-    <t>earthfloor_centers</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>線熱貫流率</t>
-    <rPh sb="0" eb="1">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="1" eb="5">
-      <t>ネツカンリュウリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>short</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>接する室の用途</t>
-    <rPh sb="0" eb="1">
-      <t>セッ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>space_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:主たる居室
-2:その他の居室
-3:非居室
-4:床下空間</t>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョシツ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヒキョシツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ユカシタ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>クウカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日除け下端から窓上端までの垂直方向の距離</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヨ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カタン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウタン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>スイチョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窓の開口高さ寸法</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スンポウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>壁面からの日除けの張り出し寸法</t>
-    <rPh sb="0" eb="2">
-      <t>ヘキメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>スンポウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>間仕切り床</t>
-    <rPh sb="0" eb="3">
-      <t>マジキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ユカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>間仕切り壁</t>
-    <rPh sb="0" eb="3">
-      <t>マジキ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>inner_floors</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>inner_walls</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上側に接する室の用途</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セッ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>下側に接する室の用途</t>
-    <rPh sb="0" eb="2">
-      <t>シタガワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セッ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>upper_space_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>層</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>layers</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>熱伝導率</t>
-    <rPh sb="0" eb="4">
-      <t>ネツデンドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>熱抵抗</t>
-    <rPh sb="0" eb="3">
-      <t>ネツテイコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>容積比熱</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒネツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>厚さ</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>熱抵抗の入力方法</t>
-    <rPh sb="0" eb="3">
-      <t>ネツテイコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>heat_resistance_input_method</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:conductivity
-2:resistance</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:熱伝導率と厚さから入力する 
-2:熱抵抗を入力する</t>
-    <rPh sb="2" eb="3">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>デンドウリツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テイコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>thickness</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>thermal_resistance</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>thermal_conductivity</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>volumetric_specific_heat</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>J/LK</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m2K/W</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>layerの番号の小さい側</t>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>layerの番号の大きい側</t>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>space_type_1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>speace_type_2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>lower_space_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:main_occupant_room
-2:other_occupant_room
-3:non_occupant_room
-4:underfloor</t>
-    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2755,10 +2755,10 @@
   <dimension ref="A2:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2809,7 +2809,7 @@
         <v>4</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>5</v>
@@ -2818,13 +2818,13 @@
         <v>6</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2883,19 +2883,19 @@
         <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>14</v>
@@ -2936,10 +2936,10 @@
         <v>12</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>14</v>
@@ -2980,10 +2980,10 @@
         <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>14</v>
@@ -3024,10 +3024,10 @@
         <v>12</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>14</v>
@@ -3042,10 +3042,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3068,16 +3068,16 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -3086,13 +3086,13 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
@@ -3161,14 +3161,14 @@
         <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -3203,16 +3203,16 @@
         <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3302,10 +3302,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3340,10 +3340,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -3401,10 +3401,10 @@
         <v>48</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3441,10 +3441,10 @@
         <v>48</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -3458,16 +3458,16 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -3479,14 +3479,14 @@
         <v>11</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3500,10 +3500,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3520,13 +3520,13 @@
         <v>2</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -3540,10 +3540,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3560,13 +3560,13 @@
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -3580,10 +3580,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3600,13 +3600,13 @@
         <v>2</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3620,10 +3620,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3640,11 +3640,11 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3658,10 +3658,10 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3678,11 +3678,11 @@
         <v>3</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3696,16 +3696,16 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -3717,14 +3717,14 @@
         <v>11</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3738,10 +3738,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3758,13 +3758,13 @@
         <v>3</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3778,10 +3778,10 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3798,13 +3798,13 @@
         <v>3</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3818,10 +3818,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -3844,28 +3844,28 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>14</v>
@@ -3880,13 +3880,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>49</v>
@@ -3901,15 +3901,15 @@
         <v>33</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>14</v>
@@ -3924,16 +3924,16 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -3945,15 +3945,15 @@
         <v>33</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>14</v>
@@ -3968,16 +3968,16 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -3989,17 +3989,17 @@
         <v>11</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>14</v>
@@ -4014,10 +4014,10 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -4039,7 +4039,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>14</v>
@@ -4054,16 +4054,16 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -4072,13 +4072,13 @@
         <v>4</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4096,10 +4096,10 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -4122,16 +4122,16 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -4143,15 +4143,15 @@
         <v>11</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>14</v>
@@ -4166,16 +4166,16 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -4187,13 +4187,13 @@
         <v>11</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
@@ -4212,10 +4212,10 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -4235,7 +4235,7 @@
         <v>48</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
@@ -4254,16 +4254,16 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -4275,15 +4275,15 @@
         <v>11</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>14</v>
@@ -4298,10 +4298,10 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -4324,28 +4324,28 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>14</v>
@@ -4360,16 +4360,16 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -4381,15 +4381,15 @@
         <v>33</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>14</v>
@@ -4404,16 +4404,16 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -4425,17 +4425,17 @@
         <v>11</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>14</v>
@@ -4450,10 +4450,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4475,7 +4475,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>14</v>
@@ -4490,16 +4490,16 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -4508,13 +4508,13 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4532,10 +4532,10 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -4558,16 +4558,16 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -4579,15 +4579,15 @@
         <v>11</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>14</v>
@@ -4602,10 +4602,10 @@
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4628,13 +4628,13 @@
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
@@ -4647,10 +4647,10 @@
         <v>11</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4670,10 +4670,10 @@
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4695,7 +4695,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>14</v>
@@ -4710,16 +4710,16 @@
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -4728,18 +4728,18 @@
         <v>2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>14</v>
@@ -4754,10 +4754,10 @@
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4774,12 +4774,12 @@
         <v>3</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>14</v>
@@ -4794,16 +4794,16 @@
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -4815,10 +4815,10 @@
         <v>11</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4838,16 +4838,16 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -4859,10 +4859,10 @@
         <v>11</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4882,16 +4882,16 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -4903,10 +4903,10 @@
         <v>11</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4926,10 +4926,10 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -4952,10 +4952,10 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4972,12 +4972,12 @@
         <v>2</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>14</v>
@@ -4992,10 +4992,10 @@
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5012,12 +5012,12 @@
         <v>2</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>14</v>
@@ -5032,10 +5032,10 @@
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5052,12 +5052,12 @@
         <v>2</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>14</v>
@@ -5072,10 +5072,10 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -5098,28 +5098,28 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>14</v>
@@ -5134,16 +5134,16 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -5155,15 +5155,15 @@
         <v>33</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>14</v>
@@ -5178,16 +5178,16 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -5199,17 +5199,17 @@
         <v>11</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>14</v>
@@ -5224,10 +5224,10 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5249,7 +5249,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>14</v>
@@ -5264,16 +5264,16 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -5282,13 +5282,13 @@
         <v>4</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5306,10 +5306,10 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -5332,10 +5332,10 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5357,7 +5357,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>14</v>
@@ -5372,16 +5372,16 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -5393,15 +5393,15 @@
         <v>11</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>14</v>
@@ -5416,10 +5416,10 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -5442,28 +5442,28 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>14</v>
@@ -5478,16 +5478,16 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -5499,15 +5499,15 @@
         <v>33</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>14</v>
@@ -5522,16 +5522,16 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -5543,17 +5543,17 @@
         <v>11</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>14</v>
@@ -5568,10 +5568,10 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5588,12 +5588,12 @@
         <v>2</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>14</v>
@@ -5608,16 +5608,16 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -5626,13 +5626,13 @@
         <v>4</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5650,10 +5650,10 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -5676,10 +5676,10 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5696,12 +5696,12 @@
         <v>2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>14</v>
@@ -5716,10 +5716,10 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -5742,28 +5742,28 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>14</v>
@@ -5778,10 +5778,10 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5803,7 +5803,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>14</v>
@@ -5818,16 +5818,16 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -5836,13 +5836,13 @@
         <v>4</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5860,10 +5860,10 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -5886,23 +5886,23 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5918,10 +5918,10 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5954,16 +5954,16 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -5972,13 +5972,13 @@
         <v>4</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5994,16 +5994,16 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -6012,13 +6012,13 @@
         <v>4</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -6034,10 +6034,10 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -6060,10 +6060,10 @@
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -6086,23 +6086,23 @@
         <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -6118,16 +6118,16 @@
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -6136,13 +6136,13 @@
         <v>2</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -6158,10 +6158,10 @@
         <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -6194,10 +6194,10 @@
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6214,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -6230,10 +6230,10 @@
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6244,13 +6244,13 @@
         <v>9999.9</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M92" s="1">
         <v>1</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -6266,10 +6266,10 @@
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -6302,10 +6302,10 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -6328,23 +6328,23 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -6360,10 +6360,10 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6396,16 +6396,16 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -6414,16 +6414,16 @@
         <v>4</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6438,16 +6438,16 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -6456,16 +6456,16 @@
         <v>4</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6480,10 +6480,10 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -6506,10 +6506,10 @@
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -6532,23 +6532,23 @@
         <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -6564,16 +6564,16 @@
         <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -6582,13 +6582,13 @@
         <v>2</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -6604,10 +6604,10 @@
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6624,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -6640,10 +6640,10 @@
         <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6660,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -6676,10 +6676,10 @@
         <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6690,13 +6690,13 @@
         <v>9999.9</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M105" s="1">
         <v>1</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -6712,10 +6712,10 @@
         <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C235B4-6C2D-433C-8479-7FBA31E0D096}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046A2D5-2C74-42F3-AC7B-A7DCE7FC4E94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="h_evlp" sheetId="1" r:id="rId1"/>
+    <sheet name="h_htc" sheetId="3" r:id="rId2"/>
+    <sheet name="json元ファイル" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="451">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2270,12 +2272,1983 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>入力書式</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力値例</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力情報補完より</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Gdata: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>共通情報</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Region:</t>
+  </si>
+  <si>
+    <t>[－]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>地域区分</t>
+    <rPh sb="0" eb="2">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Rooms: [</t>
+  </si>
+  <si>
+    <t>室情報</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>2019/1/22修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>roomname:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>主たる居室</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>main, other, nonliving, underfloor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/24削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HeatCcap:</t>
+  </si>
+  <si>
+    <t>[W]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対流暖房最大能力（将来的には削除）</t>
+    <rPh sb="0" eb="2">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HeatRcap:</t>
+  </si>
+  <si>
+    <t>放射暖房最大能力（将来的には削除）</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CoolCcap:</t>
+  </si>
+  <si>
+    <t>対流冷房最大能力（将来的には削除）</t>
+    <rPh sb="0" eb="2">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Vol:</t>
+  </si>
+  <si>
+    <t>[m3]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>気積</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>天井高2.4mとし、入力情報補完で換算</t>
+    <rPh sb="10" eb="16">
+      <t>ニュウリョクジョウホウホカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Fnt:</t>
+  </si>
+  <si>
+    <t>[kJ/(m3･K)]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>気積当たりの家具熱容量</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ネツヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/25削除</t>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>equipment: [</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>type:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>room_air_conditioner</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ルームエアコンの場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>q_rtd_h:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>定格暖房能力</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>q_max_h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>最大暖房能力</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>q_rtd_c</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>定格冷房能力</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>q_max_c</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>最大冷房能力</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cop_rtd_h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>定格冷房COP</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レイボウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>定格暖房COP</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>floor_heating</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>床暖房の場合</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>construct_area:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[m2]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>敷設面積</t>
+    <rPh sb="0" eb="2">
+      <t>フセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/25追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>equipment: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cooling: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>main: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sub: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>heating: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LinearHeatBridge: [</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LinearHeatTrans:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[W/(m･K)]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>線熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ネツカンリュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LinearHeatTransLength:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[m]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>線熱橋の長さ</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>boundary1:{</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>境界情報</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Room Surfaceに展開</t>
+    <rPh sb="13" eb="15">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/22小文字に変更</t>
+    <rPh sb="9" eb="12">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>方位名称</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Top, N, NE, E, SE, S, SW, W, NW, Bottom, ClosedSpace, OpenBackFloor, ResidenceSpace, ClosedBackFloor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Type:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Outdoor | DeltaTCoeff | NextRoom | AnnualAverage</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>境界条件が屋外 | 温度差係数 | 隣室 | 年平均気温</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オンドサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ネンヘイキン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DirectionAngle:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[゜]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>方位角（南：0、西：90、北：180、東：-90）［Type:Outdoorのとき］</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>隣室の場合はDirectionAngle: Null</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>InclinationAngle:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>傾斜角（水平：0、鉛直：90）［Type:Outdoorのとき］</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エンチョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>隣室の場合はInclinationAngle: Null</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/2/9デフォルト値追加</t>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>GroundReflectRate:</t>
+  </si>
+  <si>
+    <t>地面反射率［Type:Outdoorのとき］</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TempDifferFactor:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>隣室温度差係数（外気側の重み）［Type:DeltaTCoeffのとき］</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>オンドサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力情報補完の方で隣室種類から換算 Nなどの場合はTempDifferFactor: Null</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウリョクジョウホウホカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>RoomName:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>非居室</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョシツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>隣室名称［Type:NextRoomのとき］</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>boundary2:{</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>西</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Vent: {</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>計画換気</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>winter:</t>
+  </si>
+  <si>
+    <t>[m3/h]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>暖房期風量</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>住戸全体気積の0.5回換気 入力情報補完で計算</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>inter:</t>
+  </si>
+  <si>
+    <t>中間期風量</t>
+    <rPh sb="0" eb="3">
+      <t>チュウカンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>summer:</t>
+  </si>
+  <si>
+    <t>冷房期風量</t>
+    <rPh sb="0" eb="2">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Inf: {</t>
+  </si>
+  <si>
+    <t>すきま風</t>
+    <rPh sb="3" eb="4">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ひとまず0㎥/h</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CrossVentRoom:</t>
+  </si>
+  <si>
+    <t>通風対象室フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウフウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>True（実際は使っていません）</t>
+    <rPh sb="5" eb="7">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>RadHeat:</t>
+  </si>
+  <si>
+    <t>放射暖房フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Beta:</t>
+  </si>
+  <si>
+    <t>放射暖房対流発熱比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハツネツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NextVent: [</t>
+  </si>
+  <si>
+    <t>隣室間換気</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Windward_roomname:</t>
+  </si>
+  <si>
+    <t>風上室名称</t>
+    <rPh sb="0" eb="2">
+      <t>カザカミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>換気をもとに入力情報補完から書き出し</t>
+    <rPh sb="0" eb="2">
+      <t>カンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Surface: [</t>
+  </si>
+  <si>
+    <t>室内表面情報</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Surfaceと同列に熱橋・土間床・土間床等の外周部の線熱橋を追加</t>
+    <rPh sb="8" eb="10">
+      <t>ドウレツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Surfaceに床フラグ追加</t>
+    <rPh sb="8" eb="9">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>skin:</t>
+  </si>
+  <si>
+    <t>外皮フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヒ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2018/12/28追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>direction:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Upward | Landscape | Downward</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>表面の室内からの向き（上向き｜横向き｜下向き）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウエム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨコム</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シタム</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>boundary:{</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>unsteady:</t>
+  </si>
+  <si>
+    <t>非定常フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>ヒテイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name:</t>
+  </si>
+  <si>
+    <t>外壁</t>
+  </si>
+  <si>
+    <t>部位名称</t>
+    <rPh sb="0" eb="2">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Wall1, Wall2,…</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>floor:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>床の場合true（日射の吸収部位）</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IsSoil:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>土壌が含まれる場合True（固定公比が切り替わる）</t>
+    <rPh sb="0" eb="2">
+      <t>ドジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウヒ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Wall: {</t>
+  </si>
+  <si>
+    <t>OutEmissiv:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>屋外側放射率</t>
+    <rPh sb="0" eb="2">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウシャリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0.9　（Wallに屋外側総合熱伝達率は不要？←Layersにあり）</t>
+    <rPh sb="10" eb="12">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>デンタツリツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OutSolarAbs:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>屋外側日射吸収率</t>
+    <rPh sb="0" eb="2">
+      <t>オクガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/5追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>InHeatTrans:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Layers: [</t>
+  </si>
+  <si>
+    <t>層構成</t>
+    <rPh sb="0" eb="3">
+      <t>ソウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>せっこうボード</t>
+  </si>
+  <si>
+    <t>部材名称</t>
+    <rPh sb="0" eb="2">
+      <t>ブザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力情報補完から書き出す時点では、Cρ、λ情報を含める。入力情報補完でも熱伝導率・容積比熱は既知として扱っているが、どの時点で材料から熱伝導率・容積比熱を得るか。</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ネツデンドウリツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウセキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒネツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>cond:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>熱伝導率</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>デンドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>specH:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>容積比熱</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒネツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>thick:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>厚さ</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>補正熱貫流率の入力の場合、断熱材を減らす。木造では将来的に廃止する方向。</t>
+    <rPh sb="0" eb="5">
+      <t>ホセイネツカンリュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>area:</t>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>木造の一般部と熱橋部などは面積割合に応じて面積を算出し、別の壁体として入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ワリアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sunbrk:</t>
+  </si>
+  <si>
+    <t>日除け名称</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sunbreak（日除けの入力がない場合は、仮定した値などを入れる。日除けの入力フラグを立てる必要はない。）</t>
+    <rPh sb="9" eb="11">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>flr:</t>
+  </si>
+  <si>
+    <t>放射暖房吸収比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>当該部位面積÷部位合計面積</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>Door1, Door2,…</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Window: {</t>
+  </si>
+  <si>
+    <t>Eta:</t>
+  </si>
+  <si>
+    <t>日射熱取得率</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>仕様からη値へは、入力情報補完の最後で実施。LV1で暖房期と冷房期それぞれの値がある場合は、LV1toLV2で平均値を取る。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>ニュウリョクジョウホウホカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SolarTrans:</t>
+  </si>
+  <si>
+    <t>日射透過率</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウカリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>日射熱取得率に等しい（斜入射特性は単板のものを使用？ガラス種類は不要？←AnleIncidenceで定義する）</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シャニュウシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SolarAbsorp:</t>
+  </si>
+  <si>
+    <t>吸収日射取得率</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Uw:</t>
+  </si>
+  <si>
+    <t>熱貫流率</t>
+    <rPh sb="0" eb="3">
+      <t>ネツカンリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OutHeatTrans:</t>
+  </si>
+  <si>
+    <t>室外側総合熱伝達率</t>
+    <rPh sb="0" eb="2">
+      <t>シツガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ネツデンタツリツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>25W/(㎡・K)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OutEmissiv:</t>
+  </si>
+  <si>
+    <t>AngleIncidence:</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SingleGlazing | DoubleGlazing | Low-E</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>[－]</t>
+  </si>
+  <si>
+    <t>ガラスの入射角特性</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウシャカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/1/22単語変更</t>
+    <rPh sb="9" eb="11">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>sunbreak:{</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>外部日除け情報（ない場合は"sunbreak": ""）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バルコニー</t>
+  </si>
+  <si>
+    <t>ひさし（名称は不要←計算には不使用）</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>フシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>D:</t>
+  </si>
+  <si>
+    <t>[mm]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>庇の出巾</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>WI1:</t>
+  </si>
+  <si>
+    <t>向かって左側の庇の出っ張り</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>WI2:</t>
+  </si>
+  <si>
+    <t>向かって右側の庇の出っ張り</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hi:</t>
+  </si>
+  <si>
+    <t>窓上端から庇までの距離</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウタン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>WR:</t>
+  </si>
+  <si>
+    <t>窓の幅</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>WH:</t>
+  </si>
+  <si>
+    <t>窓の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Gdata</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>将来の名前変更</t>
+    <rPh sb="0" eb="2">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力情報補完より</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>履歴</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Gdata -&gt; common</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Region -&gt; region</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2323,8 +4296,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2346,6 +4338,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,7 +4447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2470,6 +4486,63 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2754,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6747,4 +8820,7680 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0785B-4260-4468-85DE-8E452DA1F3A9}">
+  <dimension ref="A2:R107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="17" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23.1875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="35.25">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="141">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.149999999999999">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>999.99</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.149999999999999">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>999.99</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.149999999999999">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>999.99</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:18" ht="70.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:18" ht="35.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="52.9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="70.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="35.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="35.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="52.9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="123.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="88.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>10</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="35.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="52.9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="52.9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="105.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="105.75">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" ht="229.15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>13</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="70.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+    </row>
+    <row r="37" spans="1:17" ht="70.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="70.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="52.9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="35.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="105.75">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="229.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>13</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="70.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+    </row>
+    <row r="48" spans="1:17" ht="35.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+    </row>
+    <row r="50" spans="1:17" ht="35.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="35.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="1">
+        <v>3</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="52.9">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" ht="70.5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" ht="35.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>10</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1"/>
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="105.75">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>6</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="229.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>13</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" ht="70.5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>10</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" ht="35.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1"/>
+      <c r="B70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" ht="105.75">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>6</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" ht="229.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>13</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" ht="70.5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>10</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1"/>
+      <c r="B78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="1">
+        <v>2</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" ht="70.5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>4</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1"/>
+      <c r="B82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="1">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" ht="70.5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <v>4</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" ht="70.5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>4</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" ht="35.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>2</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K91" s="9">
+        <v>999.99900000000002</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="10">
+        <v>3</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="K92" s="9">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="10">
+        <v>4</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9999.9</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="9">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9">
+        <v>9999.9</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="10">
+        <v>1</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1"/>
+      <c r="B95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" s="1">
+        <v>2</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" ht="70.5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>4</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="70.5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>4</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:17" ht="35.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="K104" s="9">
+        <v>999.99900000000002</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="10">
+        <v>3</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="K105" s="9">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="10">
+        <v>4</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>9999.9</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="9">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9">
+        <v>9999.9</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="10">
+        <v>1</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="O107" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF300C0-DBFA-4FB7-8D20-9C20F6CF4392}">
+  <dimension ref="A1:N171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20">
+        <v>6</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24">
+        <v>-4000</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20">
+        <v>70.92</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24">
+        <v>12.6</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24">
+        <v>2500</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24">
+        <v>2200</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24">
+        <v>3300</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24">
+        <v>5.8</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24">
+        <v>6.5</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24">
+        <v>15</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20">
+        <v>2200</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20">
+        <v>3300</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20">
+        <v>5.8</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="M42" s="23"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20">
+        <v>2500</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="M43" s="23"/>
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20">
+        <v>3500</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="M45" s="23"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48" s="23"/>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20">
+        <v>15</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="14"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="14"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="14"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="M55" s="23"/>
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="14"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20">
+        <v>15</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="M56" s="23"/>
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="14"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="14"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="14"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20">
+        <v>180</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="14"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20">
+        <v>90</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="K62" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="M62" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N62" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="14"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M63" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="14"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M64" s="23"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="14"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="14"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N66" s="14"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="14"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M68" s="23"/>
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="14"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20">
+        <v>180</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="14"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20">
+        <v>90</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="K71" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="M71" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N71" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="14"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M73" s="23"/>
+      <c r="N73" s="14"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="14"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="14"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="14"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="14"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="14"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="14"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20">
+        <v>60</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="M78" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="14"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20">
+        <v>60</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="14"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20">
+        <v>60</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="14"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="14"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="14"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20">
+        <v>0</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="M83" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="14"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20">
+        <v>0</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="M84" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="14"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20">
+        <v>0</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="M85" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="14"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L87" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="M87" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N87" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L88" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M88" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N88" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="28">
+        <v>0</v>
+      </c>
+      <c r="K89" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L89" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="M89" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N89" s="26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="14"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="14"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="14"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N92" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="14"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="20">
+        <v>60</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N93" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="14"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="20">
+        <v>60</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N94" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="14"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20">
+        <v>60</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N95" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="14"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="14"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="14"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="14"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="14"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L100" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="M100" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L101" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="M101" s="23"/>
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="14"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N103" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="14"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K104" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L104" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M104" s="23"/>
+      <c r="N104" s="14"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="14"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20">
+        <v>180</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L105" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M105" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="14"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20">
+        <v>90</v>
+      </c>
+      <c r="K106" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L106" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M106" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="K107" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L107" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="M107" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N107" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="14"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K108" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L108" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M108" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K109" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L109" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M109" s="23"/>
+      <c r="N109" s="14"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="14"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="14"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L111" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N111" s="14"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="14"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N112" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="14"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L113" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="M113" s="23"/>
+      <c r="N113" s="14"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="14"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="M114" s="23"/>
+      <c r="N114" s="14"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="14"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="K116" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L116" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="M116" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N116" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="K117" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L117" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="M117" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N117" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20">
+        <v>9.1</v>
+      </c>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="14"/>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="14"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="14"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="J121" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="M121" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N121" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="J122" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="K122" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="L122" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="M122" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J123" s="20">
+        <v>830</v>
+      </c>
+      <c r="K123" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="L123" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="M123" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J124" s="20">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K124" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="L124" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="M124" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N124" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="14"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="14"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="14"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="14"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20">
+        <v>4.9775</v>
+      </c>
+      <c r="K128" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="L128" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="M128" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N128" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L129" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="M129" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N129" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="28">
+        <v>0</v>
+      </c>
+      <c r="K130" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L130" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="M130" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N130" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="14"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="14"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="14"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L133" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="M133" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N133" s="14"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="K134" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L134" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="M134" s="23"/>
+      <c r="N134" s="14"/>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="14"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M135" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N135" s="14"/>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="K136" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L136" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M136" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N136" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="14"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K137" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M137" s="23"/>
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="14"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20">
+        <v>180</v>
+      </c>
+      <c r="K138" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L138" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="M138" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N138" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="14"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20">
+        <v>90</v>
+      </c>
+      <c r="K139" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M139" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N139" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="K140" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L140" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="M140" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N140" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="14"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K141" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L141" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="M141" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N141" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="K142" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L142" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M142" s="23"/>
+      <c r="N142" s="14"/>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="14"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="14"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="M144" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N144" s="14"/>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="14"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="K145" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="M145" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N145" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="14"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="M146" s="23"/>
+      <c r="N146" s="14"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="14"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="14"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="14"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K148" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="M148" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N148" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" s="27"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K149" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L149" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="M149" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N149" s="26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K150" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L150" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="M150" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N150" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="14"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K151" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L151" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="M151" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N151" s="14"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="14"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20">
+        <v>25</v>
+      </c>
+      <c r="K152" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="L152" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="M152" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N152" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="K153" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L153" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="M153" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N153" s="26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20">
+        <v>9.1</v>
+      </c>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="14"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="14"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="K155" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="L155" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="M155" s="23"/>
+      <c r="N155" s="14"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="14"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="14"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20">
+        <v>1.62</v>
+      </c>
+      <c r="K157" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="L157" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="M157" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N157" s="14"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="M158" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="N158" s="14"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="K159" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L159" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M159" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N159" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="14"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="20">
+        <v>910</v>
+      </c>
+      <c r="K160" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="L160" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="M160" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N160" s="14"/>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28">
+        <v>290</v>
+      </c>
+      <c r="K161" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="L161" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="M161" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N161" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="27"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28">
+        <v>50</v>
+      </c>
+      <c r="K162" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="L162" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="M162" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N162" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="14"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20">
+        <v>480</v>
+      </c>
+      <c r="K163" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="L163" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="M163" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N163" s="14"/>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B164" s="27"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="28">
+        <v>3300</v>
+      </c>
+      <c r="K164" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="L164" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="M164" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N164" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="14"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20">
+        <v>2100</v>
+      </c>
+      <c r="K165" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="L165" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M165" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="N165" s="14"/>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="14"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B167" s="27"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="28">
+        <v>0</v>
+      </c>
+      <c r="K167" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L167" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="M167" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N167" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="14"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="14"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="14"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="14"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="14"/>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="14"/>
+      <c r="B171" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DBB9C-2836-448E-80CE-693A2DC6F68D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA230C20-8BFB-48D3-AC9C-7C62F3179AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h_evlp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="529">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -5188,6 +5188,19 @@
 2:detail_method
 3:area_ratio_method
 (4:r_corrected_method)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>←floor だけで大丈夫、消す予定</t>
+    <rPh sb="10" eb="13">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5486,19 +5499,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5783,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
@@ -5810,13 +5823,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="52.9">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>0</v>
@@ -7748,10 +7761,10 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="4" t="s">
         <v>498</v>
       </c>
@@ -10757,12 +10770,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0785B-4260-4468-85DE-8E452DA1F3A9}">
   <dimension ref="A2:AD139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A158" sqref="A158"/>
       <selection pane="topRight" activeCell="A158" sqref="A158"/>
       <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -10785,13 +10798,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="52.9">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11339,7 +11352,9 @@
       <c r="F22" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>528</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -12584,7 +12599,9 @@
       <c r="F55" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="16" t="s">
+        <v>528</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -15747,8 +15764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF300C0-DBFA-4FB7-8D20-9C20F6CF4392}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152:G154"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA230C20-8BFB-48D3-AC9C-7C62F3179AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD98040-80B6-463A-9369-EED3339DACF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h_evlp" sheetId="1" r:id="rId1"/>
     <sheet name="h_htc" sheetId="3" r:id="rId2"/>
-    <sheet name="json元ファイル" sheetId="2" r:id="rId3"/>
+    <sheet name="h_htc(190409用)" sheetId="4" r:id="rId3"/>
+    <sheet name="json元ファイル" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">h_evlp!$A$1:$T$123</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'h_htc(190409用)'!$A$1:$M$60</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">h_evlp!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'h_htc(190409用)'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="610">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -5200,6 +5207,665 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>境界</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boundary</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○（複数）</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>境界の種類</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boundary_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[境界の種類]=[外壁側]</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガイヘキガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>温度差係数</t>
+    <rPh sb="0" eb="3">
+      <t>オンドサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>temp_dif_coef</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>方位角</t>
+    <rPh sb="0" eb="3">
+      <t>ホウイカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>傾斜角</t>
+    <rPh sb="0" eb="3">
+      <t>ケイシャカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>direction_angle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>inclination _angle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>例（南:0, 西:90, 北:180, 東:-90）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>例（水平:0, 鉛直:90）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_radiative_heating</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>convection_rate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cross_vent_room</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:internal
+2:external
+3:ground</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:内壁側
+2:外壁側
+3:地盤</t>
+    <rPh sb="2" eb="5">
+      <t>ナイヘキガワ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガイヘキガワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>室タイプ</t>
+    <rPh sb="0" eb="1">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>隣室タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>リンシツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>next_room_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[境界の種類]=[内壁側]</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウチカベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日射吸収の有無</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_solar_absorbed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:吸収する
+2:吸収しない</t>
+    <rPh sb="2" eb="4">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>thermal_thickness_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱的厚さのタイプ</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:thin
+2:thick</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:薄い
+2:厚い</t>
+    <rPh sb="2" eb="3">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>固定公比が切り替わる
+薄い=壁, 厚い=地盤</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不透明部位の仕様</t>
+    <rPh sb="0" eb="3">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opaque_spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>outside_emissivity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>outside_solar_absorption</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>室外側長波長放射率</t>
+    <rPh sb="0" eb="2">
+      <t>シツガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チョウハチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ホウシャリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>室外側日射吸収率</t>
+    <rPh sb="0" eb="2">
+      <t>シツガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>inside_heat_transfer_coef</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>室内側熱伝達抵抗</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>△（複数）</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱容量</t>
+    <rPh sb="0" eb="3">
+      <t>ネツヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>thermal_capacity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kJ/m2K</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射吸収比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>radiation_absoption_ratio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>放射暖房による放射の吸収比率</t>
+    <rPh sb="0" eb="2">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>透明部位の仕様</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opaque_part_spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>transparent_part_spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日射熱取得率</t>
+    <rPh sb="0" eb="3">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>eta_value</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日射熱透過率</t>
+    <rPh sb="0" eb="3">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウカリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>吸収日射熱取得率</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニッシャネツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シュトクリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>熱貫流率</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>カンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solar_transmittance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solar_absorption_ratio</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ガラスの入射角特性タイプ</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウシャカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>incident_angle_characteristics</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:single
+2:multiple</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:単層
+2:複層</t>
+    <rPh sb="2" eb="4">
+      <t>タンソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日除けの仕様</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solar_shading_part</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>有無</t>
+    <rPh sb="0" eb="2">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>existance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:存在する
+2:存在しない</t>
+    <rPh sb="2" eb="4">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>庇・軒の出幅</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓の高さ</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓の上端から庇までの距離</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暖房設備</t>
+    <rPh sb="0" eb="2">
+      <t>ダンボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heating_equipment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>主設備</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>main_equipment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設備の種類</t>
+    <rPh sb="0" eb="2">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>equipment_type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>副設備</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冷房設備</t>
+    <rPh sb="0" eb="2">
+      <t>レイボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツビ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5794,13 +6460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T124"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T123"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H31" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -5822,89 +6491,141 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="52.9">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:20" ht="52.9">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="5" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" ht="141">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="141">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19.149999999999999">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -5914,34 +6635,30 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>8</v>
+        <v>999.99</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>167</v>
+        <v>19</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>12</v>
@@ -5966,10 +6683,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>447</v>
@@ -6014,10 +6731,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>447</v>
@@ -6052,165 +6769,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.149999999999999">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="70.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>999.99</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="J8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="35.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="70.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>4</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" ht="35.25">
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="52.9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -6220,25 +6935,25 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>33</v>
@@ -6256,7 +6971,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="52.9">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -6266,34 +6981,30 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
@@ -6312,10 +7023,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>447</v>
@@ -6354,10 +7065,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>447</v>
@@ -6396,10 +7107,10 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>447</v>
@@ -6438,13 +7149,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -6480,13 +7191,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -6512,7 +7223,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" ht="35.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -6522,30 +7233,34 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
@@ -6554,7 +7269,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="35.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -6564,34 +7279,30 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
+        <v>10</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
@@ -6600,7 +7311,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" ht="35.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -6610,13 +7321,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -6652,13 +7363,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -6684,7 +7395,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="35.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -6694,13 +7405,13 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -6708,16 +7419,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1" t="s">
@@ -6736,10 +7447,10 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>447</v>
@@ -6768,7 +7479,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" ht="35.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -6778,27 +7489,31 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>167</v>
@@ -6810,7 +7525,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="35.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -6820,31 +7535,27 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>93</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1">
-        <v>2</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>167</v>
@@ -6866,10 +7577,10 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>445</v>
@@ -6898,79 +7609,77 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" ht="35.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="1">
-        <v>3</v>
-      </c>
-      <c r="P27" s="1" t="s">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
+      <c r="P28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" ht="35.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="T28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="123.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -6980,20 +7689,28 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>52</v>
+        <v>455</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>6</v>
+      </c>
       <c r="N29" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>167</v>
@@ -7010,7 +7727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="123.4">
+    <row r="30" spans="1:20" ht="105.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -7020,19 +7737,19 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>455</v>
+        <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>447</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>503</v>
+        <v>64</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>454</v>
+        <v>63</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -7058,7 +7775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="105.75">
+    <row r="31" spans="1:20" ht="229.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -7068,28 +7785,28 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>447</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
       </c>
       <c r="M31" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>167</v>
@@ -7097,7 +7814,9 @@
       <c r="P31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="s">
         <v>99</v>
@@ -7106,7 +7825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="229.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -7116,38 +7835,32 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>13</v>
+        <v>99.99</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
         <v>99</v>
@@ -7156,7 +7869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" ht="70.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -7166,115 +7879,121 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+        <v>449</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="S33" s="1"/>
       <c r="T33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="70.5">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>4</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="1:20" ht="70.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="70.5">
       <c r="A36" s="1"/>
@@ -7286,25 +8005,25 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>527</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>58</v>
+        <v>526</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
       </c>
       <c r="M36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>11</v>
@@ -7316,17 +8035,17 @@
         <v>167</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>438</v>
+        <v>525</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="70.5">
+    <row r="37" spans="1:20" ht="35.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7336,28 +8055,28 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>167</v>
@@ -7366,7 +8085,7 @@
         <v>167</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>525</v>
+        <v>434</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
@@ -7386,13 +8105,13 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>431</v>
@@ -7416,7 +8135,7 @@
         <v>167</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
@@ -7426,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="35.25">
+    <row r="39" spans="1:20" ht="70.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7436,38 +8155,32 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>435</v>
+        <v>71</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>436</v>
+        <v>72</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>432</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="1">
+        <v>10</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="1">
         <v>2</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>437</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
         <v>14</v>
@@ -7476,7 +8189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="70.5">
+    <row r="40" spans="1:20" ht="123.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7486,41 +8199,31 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>71</v>
+        <v>499</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>10</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="1">
-        <v>2</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="123.4">
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" ht="105.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7530,19 +8233,19 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -7554,7 +8257,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="105.75">
+    <row r="42" spans="1:20" ht="35.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7564,19 +8267,19 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -7598,19 +8301,19 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -7622,71 +8325,73 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="35.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" ht="141">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7696,97 +8401,97 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>51</v>
+        <v>520</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>52</v>
+        <v>521</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>522</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="141">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
+      <c r="E47" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" ht="35.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -7796,20 +8501,28 @@
         <v>491</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
       <c r="N49" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>167</v>
@@ -7822,7 +8535,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="35.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -7832,34 +8545,30 @@
         <v>491</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="M50" s="1">
-        <v>2</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>167</v>
+        <v>493</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M50" s="9">
+        <v>999.99900000000002</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="10">
+        <v>3</v>
+      </c>
+      <c r="P50" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -7876,30 +8585,30 @@
         <v>491</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="M51" s="9">
-        <v>999.99900000000002</v>
-      </c>
-      <c r="N51" s="9" t="s">
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>9999.9</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O51" s="10">
-        <v>3</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>90</v>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -7916,30 +8625,30 @@
         <v>491</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>9999.9</v>
-      </c>
-      <c r="N52" s="1" t="s">
+      <c r="L52" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="M52" s="9">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>197</v>
+      <c r="O52" s="10">
+        <v>4</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -7956,10 +8665,10 @@
         <v>491</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>490</v>
@@ -7967,140 +8676,138 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9">
-        <v>9.9999000000000002</v>
+        <v>9999.9</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O53" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" ht="35.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>9999.9</v>
-      </c>
-      <c r="N54" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="10">
+        <v>74</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L54" s="1">
         <v>1</v>
       </c>
-      <c r="P54" s="9" t="s">
-        <v>196</v>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:20" ht="35.25">
+      <c r="S54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1</v>
-      </c>
-      <c r="M55" s="1">
-        <v>2</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1"/>
-      <c r="B56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="105.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
@@ -8110,18 +8817,26 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>6</v>
+      </c>
       <c r="N57" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>167</v>
@@ -8138,7 +8853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="105.75">
+    <row r="58" spans="1:20" ht="229.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
@@ -8148,26 +8863,26 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
       </c>
       <c r="M58" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>167</v>
@@ -8175,7 +8890,9 @@
       <c r="P58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1" t="s">
         <v>99</v>
@@ -8184,7 +8901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="229.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -8194,36 +8911,30 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" s="1">
-        <v>13</v>
+        <v>99.99</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1" t="s">
         <v>99</v>
@@ -8232,7 +8943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" ht="70.5">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
@@ -8242,185 +8953,187 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="S60" s="1"/>
       <c r="T60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="70.5">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1">
-        <v>4</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+    </row>
+    <row r="62" spans="1:20" ht="35.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-    </row>
-    <row r="63" spans="1:20" ht="35.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1">
-        <v>2</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="D63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+    </row>
+    <row r="64" spans="1:20" ht="35.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-    </row>
-    <row r="65" spans="1:20" ht="35.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8430,41 +9143,39 @@
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1">
+        <v>10</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="1">
         <v>2</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="P65" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" ht="35.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8474,28 +9185,32 @@
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="1">
-        <v>2</v>
+        <v>127</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -8506,7 +9221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="35.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8516,29 +9231,25 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
         <v>1</v>
       </c>
-      <c r="M67" s="1">
-        <v>2</v>
-      </c>
       <c r="N67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O67" s="1">
+        <v>3</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>167</v>
@@ -8552,7 +9263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" ht="52.9">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8562,25 +9273,29 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="L68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>167</v>
@@ -8588,39 +9303,39 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="52.9">
+    <row r="69" spans="1:20" ht="70.5">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
       </c>
       <c r="M69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>11</v>
@@ -8640,7 +9355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="70.5">
+    <row r="70" spans="1:20" ht="35.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8650,23 +9365,23 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L70" s="1">
         <v>1</v>
       </c>
       <c r="M70" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>11</v>
@@ -8686,79 +9401,75 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="35.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1">
-        <v>2</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>10</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1"/>
@@ -8770,10 +9481,10 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -8812,10 +9523,10 @@
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -8846,75 +9557,71 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <v>10</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" s="1">
-        <v>2</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="1"/>
-      <c r="B76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="105.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
@@ -8924,18 +9631,26 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>6</v>
+      </c>
       <c r="N77" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>167</v>
@@ -8952,7 +9667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="105.75">
+    <row r="78" spans="1:20" ht="229.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
@@ -8962,26 +9677,26 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="L78" s="1">
         <v>1</v>
       </c>
       <c r="M78" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>167</v>
@@ -8989,7 +9704,9 @@
       <c r="P78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q78" s="1"/>
+      <c r="Q78" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1" t="s">
         <v>99</v>
@@ -8998,7 +9715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="229.15">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
@@ -9008,36 +9725,30 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" s="1">
-        <v>13</v>
+        <v>99.99</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1" t="s">
         <v>99</v>
@@ -9046,7 +9757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" ht="70.5">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
@@ -9056,111 +9767,111 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="J80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O80" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="S80" s="1"/>
       <c r="T80" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="70.5">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L81" s="1">
-        <v>1</v>
-      </c>
-      <c r="M81" s="1">
-        <v>4</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>10</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" s="1">
+        <v>2</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="35.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9170,28 +9881,32 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O83" s="1">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -9202,81 +9917,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="35.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L84" s="1">
-        <v>1</v>
-      </c>
-      <c r="M84" s="1">
-        <v>2</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="1"/>
-      <c r="B85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="105.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
@@ -9286,18 +9993,26 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>6</v>
+      </c>
       <c r="N86" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>167</v>
@@ -9314,7 +10029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="105.75">
+    <row r="87" spans="1:20" ht="229.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
@@ -9324,26 +10039,26 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>167</v>
@@ -9351,7 +10066,9 @@
       <c r="P87" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q87" s="1"/>
+      <c r="Q87" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1" t="s">
         <v>99</v>
@@ -9360,7 +10077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="229.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
@@ -9370,36 +10087,30 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="I88" s="1"/>
-      <c r="J88" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" s="1">
-        <v>13</v>
+        <v>99.99</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O88" s="1">
+        <v>2</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="s">
         <v>99</v>
@@ -9408,7 +10119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" ht="70.5">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
@@ -9418,179 +10129,175 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O89" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="S89" s="1"/>
       <c r="T89" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="70.5">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L90" s="1">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1">
-        <v>4</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>10</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
-      <c r="M92" s="1">
-        <v>10</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" s="1">
-        <v>2</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="1"/>
-      <c r="B93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="1"/>
@@ -9602,24 +10309,28 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>99.99</v>
+      </c>
       <c r="N94" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O94" s="1">
+        <v>2</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -9630,7 +10341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" ht="70.5">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
@@ -9640,109 +10351,101 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O95" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="S95" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="S95" s="1"/>
       <c r="T95" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="70.5">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1</v>
-      </c>
-      <c r="M96" s="1">
-        <v>4</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="1"/>
-      <c r="B97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="1"/>
@@ -9754,31 +10457,35 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>99.99</v>
+      </c>
       <c r="N98" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" ht="70.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
@@ -9788,28 +10495,32 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O99" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -9826,10 +10537,10 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1" t="s">
@@ -9858,62 +10569,48 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" ht="70.5">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L101" s="1">
-        <v>1</v>
-      </c>
-      <c r="M101" s="1">
-        <v>4</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
+      <c r="C101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="4"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -9932,31 +10629,39 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20" ht="35.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9966,20 +10671,28 @@
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>2</v>
+      </c>
       <c r="N104" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>167</v>
@@ -9992,7 +10705,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" ht="35.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -10002,34 +10715,30 @@
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L105" s="1">
-        <v>1</v>
-      </c>
-      <c r="M105" s="1">
-        <v>2</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>167</v>
+        <v>493</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M105" s="9">
+        <v>999.99900000000002</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O105" s="10">
+        <v>3</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -10046,30 +10755,30 @@
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="M106" s="9">
-        <v>999.99900000000002</v>
-      </c>
-      <c r="N106" s="9" t="s">
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>9999.9</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O106" s="10">
-        <v>3</v>
-      </c>
-      <c r="P106" s="9" t="s">
-        <v>90</v>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -10086,30 +10795,30 @@
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="1">
-        <v>0</v>
-      </c>
-      <c r="M107" s="1">
-        <v>9999.9</v>
-      </c>
-      <c r="N107" s="1" t="s">
+      <c r="L107" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="M107" s="9">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="N107" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O107" s="1">
-        <v>1</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>197</v>
+      <c r="O107" s="10">
+        <v>4</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -10126,10 +10835,10 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>490</v>
@@ -10137,19 +10846,19 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="M108" s="9">
-        <v>9.9999000000000002</v>
+        <v>9999.9</v>
       </c>
       <c r="N108" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O108" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -10158,71 +10867,65 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="9">
-        <v>0</v>
-      </c>
-      <c r="M109" s="9">
-        <v>9999.9</v>
-      </c>
-      <c r="N109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O109" s="10">
-        <v>1</v>
-      </c>
-      <c r="P109" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
+      <c r="B109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="1"/>
-      <c r="B110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="1"/>
@@ -10234,31 +10937,35 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>99.99</v>
+      </c>
       <c r="N111" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="O111" s="1">
+        <v>2</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" ht="70.5">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
@@ -10268,30 +10975,36 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
+      <c r="J112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="1">
-        <v>99.99</v>
+        <v>4</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O112" s="1">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q112" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -10309,7 +11022,7 @@
         <v>169</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1" t="s">
@@ -10334,70 +11047,54 @@
         <v>167</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" ht="70.5">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L114" s="1">
-        <v>1</v>
-      </c>
-      <c r="M114" s="1">
-        <v>4</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
+      <c r="C114" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="4"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -10416,31 +11113,39 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-    </row>
-    <row r="117" spans="1:20">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="1:20" ht="35.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -10450,20 +11155,28 @@
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
+      <c r="J117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L117" s="1">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>2</v>
+      </c>
       <c r="N117" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>167</v>
@@ -10476,7 +11189,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" ht="35.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -10486,34 +11199,30 @@
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L118" s="1">
-        <v>1</v>
-      </c>
-      <c r="M118" s="1">
-        <v>2</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>167</v>
+        <v>493</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="M118" s="9">
+        <v>999.99900000000002</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O118" s="10">
+        <v>3</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -10530,30 +11239,30 @@
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="M119" s="9">
-        <v>999.99900000000002</v>
-      </c>
-      <c r="N119" s="9" t="s">
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>9999.9</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O119" s="10">
-        <v>3</v>
-      </c>
-      <c r="P119" s="9" t="s">
-        <v>90</v>
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -10570,30 +11279,30 @@
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="1">
-        <v>0</v>
-      </c>
-      <c r="M120" s="1">
-        <v>9999.9</v>
-      </c>
-      <c r="N120" s="1" t="s">
+      <c r="L120" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="M120" s="9">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="N120" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O120" s="1">
-        <v>1</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>197</v>
+      <c r="O120" s="10">
+        <v>4</v>
+      </c>
+      <c r="P120" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -10610,10 +11319,10 @@
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>490</v>
@@ -10621,19 +11330,19 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="M121" s="9">
-        <v>9.9999000000000002</v>
+        <v>9999.9</v>
       </c>
       <c r="N121" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O121" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P121" s="9" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -10641,128 +11350,88 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="9">
+      <c r="A122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1">
         <v>0</v>
       </c>
-      <c r="M122" s="9">
-        <v>9999.9</v>
-      </c>
-      <c r="N122" s="9" t="s">
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O122" s="10">
+      <c r="O123" s="1">
         <v>1</v>
       </c>
-      <c r="P122" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-    </row>
-    <row r="123" spans="1:20">
-      <c r="A123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-    </row>
-    <row r="124" spans="1:20">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1">
-        <v>0</v>
-      </c>
-      <c r="M124" s="1">
-        <v>1</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O124" s="1">
-        <v>1</v>
-      </c>
-      <c r="P124" s="1" t="s">
+      <c r="P123" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T124" s="1" t="s">
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T123" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10770,8 +11439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0785B-4260-4468-85DE-8E452DA1F3A9}">
   <dimension ref="A2:AD139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A158" sqref="A158"/>
       <selection pane="topRight" activeCell="A158" sqref="A158"/>
       <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
@@ -15761,10 +16430,1644 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA5AAD-BAD9-48EA-AFE9-51ADE7EB5DC0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A158" sqref="A158"/>
+      <selection pane="topRight" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.9375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17" style="2" customWidth="1"/>
+    <col min="19" max="19" width="23.1875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="52.9">
+      <c r="A1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="141">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="70.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="52.9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="70.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="35.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="35.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="35.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1"/>
+      <c r="B46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="35.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1"/>
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1"/>
+      <c r="B54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1"/>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1"/>
+      <c r="B59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF300C0-DBFA-4FB7-8D20-9C20F6CF4392}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD98040-80B6-463A-9369-EED3339DACF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732EC23B-460A-43C4-9F94-54C63BA0CBF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">h_evlp!$A$1:$T$123</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'h_htc(190409用)'!$A$1:$M$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'h_htc(190409用)'!$A$1:$N$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">h_evlp!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'h_htc(190409用)'!$1:$1</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="669">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -5218,10 +5218,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>boundary</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>○（複数）</t>
     <rPh sb="2" eb="4">
       <t>フクスウ</t>
@@ -5250,19 +5246,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>[境界の種類]=[外壁側]</t>
-    <rPh sb="1" eb="3">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガイヘキガワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>温度差係数</t>
     <rPh sb="0" eb="3">
       <t>オンドサ</t>
@@ -5277,51 +5260,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>方位角</t>
-    <rPh sb="0" eb="3">
-      <t>ホウイカク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>傾斜角</t>
-    <rPh sb="0" eb="3">
-      <t>ケイシャカク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>direction_angle</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>inclination _angle</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>例（南:0, 西:90, 北:180, 東:-90）</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>例（水平:0, 鉛直:90）</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>is_radiative_heating</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>convection_rate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>cross_vent_room</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5331,21 +5274,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1:内壁側
-2:外壁側
-3:地盤</t>
-    <rPh sb="2" eb="5">
-      <t>ナイヘキガワ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ガイヘキガワ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>室タイプ</t>
     <rPh sb="0" eb="1">
       <t>シツ</t>
@@ -5361,39 +5289,6 @@
   </si>
   <si>
     <t>next_room_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>[境界の種類]=[内壁側]</t>
-    <rPh sb="1" eb="3">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ウチカベ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日射吸収の有無</t>
-    <rPh sb="0" eb="2">
-      <t>ニッシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>is_solar_absorbed</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5408,85 +5303,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>thermal_thickness_type</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>熱的厚さのタイプ</t>
-    <rPh sb="0" eb="1">
-      <t>ネツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:thin
-2:thick</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1:薄い
-2:厚い</t>
-    <rPh sb="2" eb="3">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>固定公比が切り替わる
-薄い=壁, 厚い=地盤</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>不透明部位の仕様</t>
-    <rPh sb="0" eb="3">
-      <t>フトウメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opaque_spec</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>outside_emissivity</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5579,63 +5395,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>放射吸収比率</t>
-    <rPh sb="0" eb="2">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>radiation_absoption_ratio</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>放射暖房による放射の吸収比率</t>
-    <rPh sb="0" eb="2">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダンボウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>透明部位の仕様</t>
-    <rPh sb="0" eb="2">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>opaque_part_spec</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>transparent_part_spec</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>日射熱取得率</t>
     <rPh sb="0" eb="3">
       <t>ニッシャネツ</t>
@@ -5650,29 +5409,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>日射熱透過率</t>
-    <rPh sb="0" eb="3">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>トウカリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>吸収日射熱取得率</t>
-    <rPh sb="0" eb="2">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニッシャネツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シュトクリツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>熱貫流率</t>
     <rPh sb="0" eb="1">
       <t>ネツ</t>
@@ -5680,14 +5416,6 @@
     <rPh sb="1" eb="4">
       <t>カンリュウリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>solar_transmittance</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>solar_absorption_ratio</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5866,6 +5594,870 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パラメータの種類
+無印：共通
+住：住宅のみ
+建：非住宅建築物のみ</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タツル</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ケンチクブツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>住</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自然風利用時の換気回数</t>
+    <rPh sb="0" eb="2">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンキカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>natural_vent_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:間仕切り
+2:外皮
+3:地盤</t>
+    <rPh sb="2" eb="5">
+      <t>マジキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[境界の種類]=[外皮]</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[境界の種類]=[間仕切り]</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>マジキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>非住宅の場合は、常に間仕切りの向こう側は等温制御にするため指定不要</t>
+    <rPh sb="0" eb="3">
+      <t>ヒジュウタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>マジキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウオン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>室内侵入日射吸収の有無</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>必ず室1つにつき1箇所は指定すること。</t>
+    <rPh sb="0" eb="1">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般部位の仕様</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>general_part_spec</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boundaries</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>透明な開口部の仕様</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不透明な開口部の仕様</t>
+    <rPh sb="0" eb="3">
+      <t>フトウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>transient_opening_part</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>opaque_opening_part</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力方法</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_method</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:simple
+2:detailed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>simple:従来住宅で使用してきたもの
+detailed:従来非住宅で使用してきたもの</t>
+    <rPh sb="7" eb="9">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウタク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ヒジュウタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:簡易法
+2:詳細法</t>
+    <rPh sb="2" eb="4">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[入力方法]=[簡易法]</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[入力方法]=[詳細法]</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z_y_pls</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z_x_pls</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z_x_mns</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>z_y_mns</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓幅</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窓高さ</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>側壁右の出幅</t>
+    <rPh sb="0" eb="2">
+      <t>ソクヘキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>側壁左の出幅</t>
+    <rPh sb="0" eb="2">
+      <t>ソクヘキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>庇水平方向の出(左)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>スイヘイホウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>庇水平方向の出(右)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="1" eb="5">
+      <t>スイヘイホウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上部庇の窓上端からの距離</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下部庇の窓下端からの距離</t>
+    <rPh sb="0" eb="2">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カタン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上部庇の出幅</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>下部庇の出幅</t>
+    <rPh sb="0" eb="2">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒサシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デハバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暖房時設定温度</t>
+    <rPh sb="0" eb="3">
+      <t>ダンボウジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セッテイオンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>要素数8760のリスト型</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冷房時設定温度</t>
+    <rPh sb="0" eb="3">
+      <t>レイボウジ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セッテイオンド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冷房時設定相対湿度</t>
+    <rPh sb="0" eb="3">
+      <t>レイボウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ソウタイシツド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heating_set_temperatures</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cooling_set_temperatures</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cooling_set_relative_humidity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スケジュール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>照明内部発熱</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heat_generation_lighting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>局所換気量</t>
+    <rPh sb="0" eb="2">
+      <t>キョクショ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カンキリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>local_vent_amount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m3/h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>在室人数</t>
+    <rPh sb="0" eb="2">
+      <t>ザイシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>number_of_people</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機器内部発熱</t>
+    <rPh sb="0" eb="2">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heat_generation_appliances</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>調理内部発熱</t>
+    <rPh sb="0" eb="2">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハツネツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>調理内部発湿</t>
+    <rPh sb="0" eb="2">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハッ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>heat_generation_cooking</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>humidigy_generation_cooking</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kg/kgDA</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下、設備関係、未作業（非住宅は不要）</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ミサギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒジュウタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>List[float]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>List[int]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>向き</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8方位＋上・下
+s, sw, w, nw, n, ne, e, se, top, bottom</t>
+    <rPh sb="1" eb="3">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日射の有無</t>
+    <rPh sb="0" eb="2">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1: 当たる
+2: 当たらない</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_solar_absorbed_inside</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_sun_striked_outside</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:s
+2:sw
+3:w
+4:nw
+5:n
+6:ne
+7:e
+8:se
+9:top
+10:bottom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:南
+2:南西
+3:西
+4:北西
+5:北
+6:北東
+7:東
+8:南東
+9:上
+10:下</t>
+    <rPh sb="2" eb="3">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [日射の有無]=[当たる]</t>
+    <rPh sb="2" eb="4">
+      <t>ニッッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -16434,36 +17026,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A158" sqref="A158"/>
       <selection pane="topRight" activeCell="A158" sqref="A158"/>
       <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.9375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.3125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.1875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="17" style="2" customWidth="1"/>
+    <col min="20" max="20" width="23.1875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="52.9">
+    <row r="1" spans="1:14" ht="70.5">
       <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
@@ -16493,10 +17086,13 @@
         <v>5</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -16518,8 +17114,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="141">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="141">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -16543,16 +17140,17 @@
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>653</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -16572,14 +17170,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>464</v>
       </c>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -16601,8 +17200,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -16622,16 +17222,17 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>655</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="70.5">
+    <row r="7" spans="1:14" ht="70.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -16640,7 +17241,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>427</v>
@@ -16655,16 +17256,19 @@
         <v>171</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>167</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -16684,14 +17288,15 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>460</v>
       </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -16711,14 +17316,15 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>473</v>
       </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
@@ -16739,9 +17345,12 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -16761,14 +17370,17 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>53</v>
+        <v>655</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -16788,14 +17400,17 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -16815,14 +17430,17 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -16831,332 +17449,344 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>481</v>
+        <v>582</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>546</v>
+        <v>583</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>447</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="K14" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>581</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>487</v>
+        <v>624</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>447</v>
+        <v>625</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="L16" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
+        <v>627</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>534</v>
+        <v>629</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>632</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>447</v>
+        <v>625</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>53</v>
+        <v>656</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>472</v>
+        <v>633</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="52.9">
+      <c r="N18" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>532</v>
+        <v>637</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>548</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>11</v>
+        <v>656</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>472</v>
+        <v>634</v>
       </c>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>645</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>646</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>447</v>
+        <v>625</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>19</v>
+        <v>656</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>656</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>472</v>
+        <v>634</v>
       </c>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>538</v>
+        <v>648</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>540</v>
+        <v>650</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>656</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>651</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>541</v>
+        <v>643</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>19</v>
+        <v>657</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>644</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>541</v>
+        <v>640</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>19</v>
+        <v>656</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="70.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" ht="35.25">
+        <v>641</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -17165,29 +17795,26 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>554</v>
+        <v>52</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>555</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" ht="35.25">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="52.9">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>14</v>
@@ -17196,31 +17823,30 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>447</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>472</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -17229,10 +17855,10 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>574</v>
+        <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>575</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>447</v>
@@ -17240,178 +17866,211 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>549</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="35.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="176.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>566</v>
+        <v>658</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>564</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+        <v>668</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
+        <v>655</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="70.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="35.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="I33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>186</v>
+        <v>545</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>193</v>
+        <v>543</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>447</v>
@@ -17419,26 +18078,27 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>447</v>
@@ -17446,74 +18106,79 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>573</v>
+        <v>167</v>
       </c>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="C38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>582</v>
+        <v>51</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>585</v>
+        <v>52</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>447</v>
@@ -17521,26 +18186,25 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>583</v>
+        <v>186</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>586</v>
+        <v>193</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>447</v>
@@ -17548,26 +18212,27 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>72</v>
+        <v>552</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>447</v>
@@ -17575,41 +18240,37 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>48</v>
+        <v>553</v>
       </c>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -17618,10 +18279,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>447</v>
@@ -17629,14 +18290,15 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>167</v>
       </c>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -17645,10 +18307,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>447</v>
@@ -17656,14 +18318,15 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" ht="35.25">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -17672,48 +18335,54 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>588</v>
+        <v>543</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>590</v>
-      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="1"/>
+        <v>654</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1"/>
-      <c r="B46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" ht="35.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" ht="35.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -17722,54 +18391,50 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>447</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>75</v>
+        <v>559</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>11</v>
+        <v>655</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="B48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -17778,10 +18443,10 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>598</v>
+        <v>545</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>447</v>
@@ -17789,14 +18454,15 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>11</v>
+        <v>654</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -17805,10 +18471,10 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>447</v>
@@ -17816,242 +18482,850 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>11</v>
+        <v>654</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="H52" s="4" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>447</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14" ht="35.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="I54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="1:14" ht="35.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="H55" s="4" t="s">
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="I55" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1"/>
-      <c r="B57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1"/>
-      <c r="B59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H61" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H62" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="N70" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1"/>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1"/>
+      <c r="B74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1"/>
+      <c r="B77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1"/>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18059,7 +19333,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732EC23B-460A-43C4-9F94-54C63BA0CBF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9337A-4F32-473D-8FC5-4E075B7B796C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="h_evlp" sheetId="1" r:id="rId1"/>
-    <sheet name="h_htc" sheetId="3" r:id="rId2"/>
-    <sheet name="h_htc(190409用)" sheetId="4" r:id="rId3"/>
-    <sheet name="json元ファイル" sheetId="2" r:id="rId4"/>
+    <sheet name="h_htc" sheetId="4" r:id="rId2"/>
+    <sheet name="json元ファイル" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">h_evlp!$A$1:$T$123</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'h_htc(190409用)'!$A$1:$N$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">h_htc!$A$1:$N$79</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">h_evlp!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'h_htc(190409用)'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">h_htc!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="658">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3912,10 +3916,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>room_type</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4421,6 +4421,17 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>換気</t>
+    <rPh sb="0" eb="2">
+      <t>カンキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ventilation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>換気回数</t>
     <rPh sb="0" eb="2">
       <t>カンキ</t>
@@ -4435,39 +4446,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>short</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1/h</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>換気</t>
-    <rPh sb="0" eb="2">
-      <t>カンキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ventilation</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>換気回数</t>
-    <rPh sb="0" eb="2">
-      <t>カンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>air_change_rate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1/h</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4564,35 +4542,6 @@
     <rPh sb="0" eb="3">
       <t>カンキリョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>通風対象室フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ツウフウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CrossVentRoom</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>True（実際は使っていません）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RadHeat</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Beta</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5195,19 +5144,6 @@
 2:detail_method
 3:area_ratio_method
 (4:r_corrected_method)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>←floor だけで大丈夫、消す予定</t>
-    <rPh sb="10" eb="13">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨテイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -7099,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>17</v>
@@ -7151,7 +7087,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -7181,7 +7117,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -7233,7 +7169,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -7281,7 +7217,7 @@
         <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -7329,7 +7265,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -7377,7 +7313,7 @@
         <v>124</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -7407,7 +7343,7 @@
         <v>155</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>160</v>
@@ -7457,7 +7393,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -7487,7 +7423,7 @@
         <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
@@ -7533,7 +7469,7 @@
         <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
@@ -7579,7 +7515,7 @@
         <v>38</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -7621,7 +7557,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -7663,7 +7599,7 @@
         <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -7705,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -7747,7 +7683,7 @@
         <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -7789,7 +7725,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -7831,7 +7767,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>91</v>
@@ -7877,7 +7813,7 @@
         <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -7919,7 +7855,7 @@
         <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -7961,7 +7897,7 @@
         <v>112</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -8003,7 +7939,7 @@
         <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -8045,7 +7981,7 @@
         <v>84</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -8087,7 +8023,7 @@
         <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>91</v>
@@ -8133,7 +8069,7 @@
         <v>87</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -8175,7 +8111,7 @@
         <v>88</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -8211,13 +8147,13 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -8247,7 +8183,7 @@
         <v>52</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -8284,16 +8220,16 @@
         <v>54</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -8335,7 +8271,7 @@
         <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>64</v>
@@ -8383,7 +8319,7 @@
         <v>66</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>204</v>
@@ -8433,7 +8369,7 @@
         <v>69</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -8477,7 +8413,7 @@
         <v>170</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>203</v>
@@ -8523,7 +8459,7 @@
         <v>62</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -8553,7 +8489,7 @@
         <v>56</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>57</v>
@@ -8577,7 +8513,7 @@
         <v>167</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
@@ -8603,13 +8539,13 @@
         <v>130</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -8627,7 +8563,7 @@
         <v>167</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
@@ -8647,19 +8583,19 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -8668,7 +8604,7 @@
         <v>2</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>167</v>
@@ -8677,7 +8613,7 @@
         <v>167</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
@@ -8697,19 +8633,19 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -8718,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>167</v>
@@ -8727,7 +8663,7 @@
         <v>167</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
@@ -8753,7 +8689,7 @@
         <v>72</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -8791,19 +8727,19 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -8825,19 +8761,19 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -8859,19 +8795,19 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -8893,19 +8829,19 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -8927,13 +8863,13 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -8953,7 +8889,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -8963,7 +8899,7 @@
         <v>52</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8989,23 +8925,23 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -9027,13 +8963,13 @@
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="4" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>184</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -9054,7 +8990,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>51</v>
@@ -9063,7 +8999,7 @@
         <v>52</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -9090,7 +9026,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>189</v>
@@ -9099,13 +9035,13 @@
         <v>190</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>191</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L49" s="1">
         <v>1</v>
@@ -9134,7 +9070,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>185</v>
@@ -9143,7 +9079,7 @@
         <v>194</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -9174,7 +9110,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>186</v>
@@ -9183,7 +9119,7 @@
         <v>193</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9214,7 +9150,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>188</v>
@@ -9223,7 +9159,7 @@
         <v>192</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9254,7 +9190,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>187</v>
@@ -9263,7 +9199,7 @@
         <v>195</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -11223,7 +11159,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -11233,7 +11169,7 @@
         <v>52</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -11259,7 +11195,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -11269,13 +11205,13 @@
         <v>190</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>191</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L104" s="1">
         <v>1</v>
@@ -11303,7 +11239,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
@@ -11313,7 +11249,7 @@
         <v>194</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -11343,7 +11279,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
@@ -11353,7 +11289,7 @@
         <v>193</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -11383,7 +11319,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
@@ -11393,7 +11329,7 @@
         <v>192</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -11423,7 +11359,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1" t="s">
@@ -11433,7 +11369,7 @@
         <v>195</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -11707,7 +11643,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
@@ -11717,7 +11653,7 @@
         <v>52</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -11743,7 +11679,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
@@ -11753,13 +11689,13 @@
         <v>190</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>191</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L117" s="1">
         <v>1</v>
@@ -11787,7 +11723,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
@@ -11797,7 +11733,7 @@
         <v>194</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -11827,7 +11763,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1" t="s">
@@ -11837,7 +11773,7 @@
         <v>193</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -11867,7 +11803,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1" t="s">
@@ -11877,7 +11813,7 @@
         <v>192</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -11907,7 +11843,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1" t="s">
@@ -11917,7 +11853,7 @@
         <v>195</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -11951,10 +11887,10 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I122" s="4" t="s">
         <v>14</v>
@@ -11981,13 +11917,13 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -12004,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
@@ -12028,5012 +11964,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0785B-4260-4468-85DE-8E452DA1F3A9}">
-  <dimension ref="A2:AD139"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A158" sqref="A158"/>
-      <selection pane="topRight" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
-  <cols>
-    <col min="1" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="3.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.9375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.0625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.1875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="52.9">
-      <c r="A2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="141">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="70.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="P20" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="11"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17">
-        <v>180</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R26" s="11"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17">
-        <v>90</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="P28" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="Q28" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R29" s="11"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="2:30">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R33" s="11"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="2:30">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M34" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="11"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-    </row>
-    <row r="35" spans="2:30">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="11"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-    </row>
-    <row r="36" spans="2:30">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-    </row>
-    <row r="37" spans="2:30">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="P37" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q37" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-    </row>
-    <row r="38" spans="2:30">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="P38" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="Q38" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R38" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-    </row>
-    <row r="39" spans="2:30">
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17">
-        <v>9.1</v>
-      </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-    </row>
-    <row r="40" spans="2:30">
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-    </row>
-    <row r="41" spans="2:30">
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-    </row>
-    <row r="42" spans="2:30">
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="L42" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q42" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-    </row>
-    <row r="43" spans="2:30">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="K43" s="17">
-        <v>0.22</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-    </row>
-    <row r="44" spans="2:30">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="K44" s="17">
-        <v>830</v>
-      </c>
-      <c r="L44" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-    </row>
-    <row r="45" spans="2:30">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="K45" s="17">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q45" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-    </row>
-    <row r="46" spans="2:30">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="19"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-    </row>
-    <row r="47" spans="2:30">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="19"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-    </row>
-    <row r="48" spans="2:30">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-    </row>
-    <row r="49" spans="2:30">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="17">
-        <v>4.9775</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q49" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R49" s="11"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-    </row>
-    <row r="50" spans="2:30">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="P50" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q50" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R50" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-    </row>
-    <row r="51" spans="2:30">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="25">
-        <v>0</v>
-      </c>
-      <c r="L51" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="P51" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q51" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R51" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-    </row>
-    <row r="52" spans="2:30">
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-    </row>
-    <row r="53" spans="2:30">
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="19"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-    </row>
-    <row r="54" spans="2:30">
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R54" s="11"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-    </row>
-    <row r="55" spans="2:30">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M55" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-    </row>
-    <row r="56" spans="2:30">
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R56" s="11"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-    </row>
-    <row r="57" spans="2:30">
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M57" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q57" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-    </row>
-    <row r="58" spans="2:30">
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L58" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M58" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="11"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-    </row>
-    <row r="59" spans="2:30">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="17">
-        <v>180</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="P59" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q59" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R59" s="11"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-    </row>
-    <row r="60" spans="2:30">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="17">
-        <v>90</v>
-      </c>
-      <c r="L60" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q60" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R60" s="11"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-    </row>
-    <row r="61" spans="2:30">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="P61" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="Q61" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R61" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-    </row>
-    <row r="62" spans="2:30">
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L62" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M62" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="P62" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q62" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R62" s="11"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-    </row>
-    <row r="63" spans="2:30">
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L63" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-    </row>
-    <row r="64" spans="2:30">
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-    </row>
-    <row r="65" spans="2:30">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M65" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R65" s="11"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-    </row>
-    <row r="66" spans="2:30">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="L66" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M66" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q66" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R66" s="11"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-    </row>
-    <row r="67" spans="2:30">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="11"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-    </row>
-    <row r="68" spans="2:30">
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="19"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-    </row>
-    <row r="69" spans="2:30">
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="17">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="L69" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M69" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q69" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R69" s="11"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-    </row>
-    <row r="70" spans="2:30">
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="25">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="L70" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="P70" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q70" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R70" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
-    </row>
-    <row r="71" spans="2:30">
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="25">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="L71" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="P71" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R71" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-    </row>
-    <row r="72" spans="2:30">
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="17">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="L72" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M72" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R72" s="11"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-    </row>
-    <row r="73" spans="2:30">
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="17">
-        <v>25</v>
-      </c>
-      <c r="L73" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M73" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q73" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R73" s="11"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-    </row>
-    <row r="74" spans="2:30">
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="P74" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="Q74" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R74" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-    </row>
-    <row r="75" spans="2:30">
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="17">
-        <v>9.1</v>
-      </c>
-      <c r="L75" s="18"/>
-      <c r="M75" s="19"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-      <c r="AD75"/>
-    </row>
-    <row r="76" spans="2:30">
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="L76" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="M76" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="11"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-    </row>
-    <row r="77" spans="2:30">
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="19"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-    </row>
-    <row r="78" spans="2:30">
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="17">
-        <v>1.62</v>
-      </c>
-      <c r="L78" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="M78" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R78" s="11"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-    </row>
-    <row r="79" spans="2:30">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R79" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79"/>
-      <c r="AD79"/>
-    </row>
-    <row r="80" spans="2:30">
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="L80" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="P80" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q80" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R80" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-    </row>
-    <row r="81" spans="2:30">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="17">
-        <v>910</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="M81" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R81" s="11"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-      <c r="AD81"/>
-    </row>
-    <row r="82" spans="2:30">
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="25">
-        <v>290</v>
-      </c>
-      <c r="L82" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="P82" s="23">
-        <v>500</v>
-      </c>
-      <c r="Q82" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R82" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82"/>
-      <c r="AB82"/>
-      <c r="AC82"/>
-      <c r="AD82"/>
-    </row>
-    <row r="83" spans="2:30">
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="25">
-        <v>50</v>
-      </c>
-      <c r="L83" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="P83" s="23">
-        <v>500</v>
-      </c>
-      <c r="Q83" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R83" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-    </row>
-    <row r="84" spans="2:30">
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17">
-        <v>480</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="M84" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R84" s="11"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
-      <c r="AD84"/>
-    </row>
-    <row r="85" spans="2:30">
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="25">
-        <v>3300</v>
-      </c>
-      <c r="L85" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="P85" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R85" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-      <c r="AD85"/>
-    </row>
-    <row r="86" spans="2:30">
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="17">
-        <v>2100</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="M86" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R86" s="11"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-    </row>
-    <row r="87" spans="2:30">
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="19"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
-      <c r="AD87"/>
-    </row>
-    <row r="88" spans="2:30">
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="25">
-        <v>0</v>
-      </c>
-      <c r="L88" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="P88" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q88" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R88" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
-      <c r="AD88"/>
-    </row>
-    <row r="89" spans="2:30">
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="19"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
-      <c r="AD89"/>
-    </row>
-    <row r="90" spans="2:30">
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
-      <c r="AD90"/>
-    </row>
-    <row r="91" spans="2:30">
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="19"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
-      <c r="AC91"/>
-      <c r="AD91"/>
-    </row>
-    <row r="92" spans="2:30">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="19"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
-      <c r="AC92"/>
-      <c r="AD92"/>
-    </row>
-    <row r="93" spans="2:30">
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="19"/>
-      <c r="P93" s="11"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S93"/>
-      <c r="T93"/>
-      <c r="U93"/>
-      <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AB93"/>
-      <c r="AC93"/>
-      <c r="AD93"/>
-    </row>
-    <row r="94" spans="2:30">
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L94" s="18"/>
-      <c r="M94" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
-      <c r="AD94"/>
-    </row>
-    <row r="95" spans="2:30">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="17">
-        <v>2200</v>
-      </c>
-      <c r="L95" s="18"/>
-      <c r="M95" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S95"/>
-      <c r="T95"/>
-      <c r="U95"/>
-      <c r="V95"/>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-      <c r="Z95"/>
-      <c r="AA95"/>
-      <c r="AB95"/>
-      <c r="AC95"/>
-      <c r="AD95"/>
-    </row>
-    <row r="96" spans="2:30">
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="17">
-        <v>3300</v>
-      </c>
-      <c r="L96" s="18"/>
-      <c r="M96" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96"/>
-      <c r="AC96"/>
-      <c r="AD96"/>
-    </row>
-    <row r="97" spans="2:30">
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="17">
-        <v>5.8</v>
-      </c>
-      <c r="L97" s="18"/>
-      <c r="M97" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-      <c r="AA97"/>
-      <c r="AB97"/>
-      <c r="AC97"/>
-      <c r="AD97"/>
-    </row>
-    <row r="98" spans="2:30">
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="19"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
-      <c r="Y98"/>
-      <c r="Z98"/>
-      <c r="AA98"/>
-      <c r="AB98"/>
-      <c r="AC98"/>
-      <c r="AD98"/>
-    </row>
-    <row r="99" spans="2:30">
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="19"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AB99"/>
-      <c r="AC99"/>
-      <c r="AD99"/>
-    </row>
-    <row r="100" spans="2:30">
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="19"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
-      <c r="Y100"/>
-      <c r="Z100"/>
-      <c r="AA100"/>
-      <c r="AB100"/>
-      <c r="AC100"/>
-      <c r="AD100"/>
-    </row>
-    <row r="101" spans="2:30">
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="19"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
-      <c r="W101"/>
-      <c r="X101"/>
-      <c r="Y101"/>
-      <c r="Z101"/>
-      <c r="AA101"/>
-      <c r="AB101"/>
-      <c r="AC101"/>
-      <c r="AD101"/>
-    </row>
-    <row r="102" spans="2:30">
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="19"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="U102"/>
-      <c r="V102"/>
-      <c r="W102"/>
-      <c r="X102"/>
-      <c r="Y102"/>
-      <c r="Z102"/>
-      <c r="AA102"/>
-      <c r="AB102"/>
-      <c r="AC102"/>
-      <c r="AD102"/>
-    </row>
-    <row r="103" spans="2:30">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="19"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S103"/>
-      <c r="T103"/>
-      <c r="U103"/>
-      <c r="V103"/>
-      <c r="W103"/>
-      <c r="X103"/>
-      <c r="Y103"/>
-      <c r="Z103"/>
-      <c r="AA103"/>
-      <c r="AB103"/>
-      <c r="AC103"/>
-      <c r="AD103"/>
-    </row>
-    <row r="104" spans="2:30">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L104" s="18"/>
-      <c r="M104" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S104"/>
-      <c r="T104"/>
-      <c r="U104"/>
-      <c r="V104"/>
-      <c r="W104"/>
-      <c r="X104"/>
-      <c r="Y104"/>
-      <c r="Z104"/>
-      <c r="AA104"/>
-      <c r="AB104"/>
-      <c r="AC104"/>
-      <c r="AD104"/>
-    </row>
-    <row r="105" spans="2:30">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="17">
-        <v>2500</v>
-      </c>
-      <c r="L105" s="18"/>
-      <c r="M105" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AB105"/>
-      <c r="AC105"/>
-      <c r="AD105"/>
-    </row>
-    <row r="106" spans="2:30">
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="17">
-        <v>3500</v>
-      </c>
-      <c r="L106" s="18"/>
-      <c r="M106" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="Z106"/>
-      <c r="AA106"/>
-      <c r="AB106"/>
-      <c r="AC106"/>
-      <c r="AD106"/>
-    </row>
-    <row r="107" spans="2:30">
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="L107" s="18"/>
-      <c r="M107" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AB107"/>
-      <c r="AC107"/>
-      <c r="AD107"/>
-    </row>
-    <row r="108" spans="2:30">
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="19"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-      <c r="Z108"/>
-      <c r="AA108"/>
-      <c r="AB108"/>
-      <c r="AC108"/>
-      <c r="AD108"/>
-    </row>
-    <row r="109" spans="2:30">
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="19"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-      <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AB109"/>
-      <c r="AC109"/>
-      <c r="AD109"/>
-    </row>
-    <row r="110" spans="2:30">
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L110" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M110" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AB110"/>
-      <c r="AC110"/>
-      <c r="AD110"/>
-    </row>
-    <row r="111" spans="2:30">
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17">
-        <v>15</v>
-      </c>
-      <c r="L111" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="M111" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
-      <c r="AA111"/>
-      <c r="AB111"/>
-      <c r="AC111"/>
-      <c r="AD111"/>
-    </row>
-    <row r="112" spans="2:30">
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="19"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-      <c r="Y112"/>
-      <c r="Z112"/>
-      <c r="AA112"/>
-      <c r="AB112"/>
-      <c r="AC112"/>
-      <c r="AD112"/>
-    </row>
-    <row r="113" spans="2:30">
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="19"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
-      <c r="V113"/>
-      <c r="W113"/>
-      <c r="X113"/>
-      <c r="Y113"/>
-      <c r="Z113"/>
-      <c r="AA113"/>
-      <c r="AB113"/>
-      <c r="AC113"/>
-      <c r="AD113"/>
-    </row>
-    <row r="114" spans="2:30">
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="19"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-      <c r="V114"/>
-      <c r="W114"/>
-      <c r="X114"/>
-      <c r="Y114"/>
-      <c r="Z114"/>
-      <c r="AA114"/>
-      <c r="AB114"/>
-      <c r="AC114"/>
-      <c r="AD114"/>
-    </row>
-    <row r="115" spans="2:30">
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="19"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="11"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115"/>
-      <c r="X115"/>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
-      <c r="AB115"/>
-      <c r="AC115"/>
-      <c r="AD115"/>
-    </row>
-    <row r="116" spans="2:30">
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="19"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="11"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-      <c r="V116"/>
-      <c r="W116"/>
-      <c r="X116"/>
-      <c r="Y116"/>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AB116"/>
-      <c r="AC116"/>
-      <c r="AD116"/>
-    </row>
-    <row r="117" spans="2:30">
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="L117" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="M117" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="11"/>
-      <c r="S117"/>
-      <c r="T117"/>
-      <c r="U117"/>
-      <c r="V117"/>
-      <c r="W117"/>
-      <c r="X117"/>
-      <c r="Y117"/>
-      <c r="Z117"/>
-      <c r="AA117"/>
-      <c r="AB117"/>
-      <c r="AC117"/>
-      <c r="AD117"/>
-    </row>
-    <row r="118" spans="2:30">
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="17">
-        <v>15</v>
-      </c>
-      <c r="L118" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="M118" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="11"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118"/>
-      <c r="Z118"/>
-      <c r="AA118"/>
-      <c r="AB118"/>
-      <c r="AC118"/>
-      <c r="AD118"/>
-    </row>
-    <row r="119" spans="2:30">
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R119" s="11"/>
-      <c r="S119"/>
-      <c r="T119"/>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119"/>
-      <c r="X119"/>
-      <c r="Y119"/>
-      <c r="Z119"/>
-      <c r="AA119"/>
-      <c r="AB119"/>
-      <c r="AC119"/>
-      <c r="AD119"/>
-    </row>
-    <row r="120" spans="2:30">
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L120" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M120" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P120" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q120" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R120" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120"/>
-      <c r="X120"/>
-      <c r="Y120"/>
-      <c r="Z120"/>
-      <c r="AA120"/>
-      <c r="AB120"/>
-      <c r="AC120"/>
-      <c r="AD120"/>
-    </row>
-    <row r="121" spans="2:30">
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L121" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M121" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="11"/>
-      <c r="S121"/>
-      <c r="T121"/>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121"/>
-      <c r="X121"/>
-      <c r="Y121"/>
-      <c r="Z121"/>
-      <c r="AA121"/>
-      <c r="AB121"/>
-      <c r="AC121"/>
-      <c r="AD121"/>
-    </row>
-    <row r="122" spans="2:30">
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="17">
-        <v>180</v>
-      </c>
-      <c r="L122" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M122" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q122" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R122" s="11"/>
-      <c r="S122"/>
-      <c r="T122"/>
-      <c r="U122"/>
-      <c r="V122"/>
-      <c r="W122"/>
-      <c r="X122"/>
-      <c r="Y122"/>
-      <c r="Z122"/>
-      <c r="AA122"/>
-      <c r="AB122"/>
-      <c r="AC122"/>
-      <c r="AD122"/>
-    </row>
-    <row r="123" spans="2:30">
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="17">
-        <v>90</v>
-      </c>
-      <c r="L123" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M123" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="P123" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q123" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R123" s="11"/>
-      <c r="S123"/>
-      <c r="T123"/>
-      <c r="U123"/>
-      <c r="V123"/>
-      <c r="W123"/>
-      <c r="X123"/>
-      <c r="Y123"/>
-      <c r="Z123"/>
-      <c r="AA123"/>
-      <c r="AB123"/>
-      <c r="AC123"/>
-      <c r="AD123"/>
-    </row>
-    <row r="124" spans="2:30">
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="L124" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M124" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="P124" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="Q124" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R124" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
-      <c r="V124"/>
-      <c r="W124"/>
-      <c r="X124"/>
-      <c r="Y124"/>
-      <c r="Z124"/>
-      <c r="AA124"/>
-      <c r="AB124"/>
-      <c r="AC124"/>
-      <c r="AD124"/>
-    </row>
-    <row r="125" spans="2:30">
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L125" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M125" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="P125" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q125" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R125" s="11"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
-      <c r="V125"/>
-      <c r="W125"/>
-      <c r="X125"/>
-      <c r="Y125"/>
-      <c r="Z125"/>
-      <c r="AA125"/>
-      <c r="AB125"/>
-      <c r="AC125"/>
-      <c r="AD125"/>
-    </row>
-    <row r="126" spans="2:30">
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L126" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M126" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="P126" s="11"/>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="11"/>
-      <c r="S126"/>
-      <c r="T126"/>
-      <c r="U126"/>
-      <c r="V126"/>
-      <c r="W126"/>
-      <c r="X126"/>
-      <c r="Y126"/>
-      <c r="Z126"/>
-      <c r="AA126"/>
-      <c r="AB126"/>
-      <c r="AC126"/>
-      <c r="AD126"/>
-    </row>
-    <row r="127" spans="2:30">
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="19"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-      <c r="R127" s="11"/>
-      <c r="S127"/>
-      <c r="T127"/>
-      <c r="U127"/>
-      <c r="V127"/>
-      <c r="W127"/>
-      <c r="X127"/>
-      <c r="Y127"/>
-      <c r="Z127"/>
-      <c r="AA127"/>
-      <c r="AB127"/>
-      <c r="AC127"/>
-      <c r="AD127"/>
-    </row>
-    <row r="128" spans="2:30">
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R128" s="11"/>
-      <c r="S128"/>
-      <c r="T128"/>
-      <c r="U128"/>
-      <c r="V128"/>
-      <c r="W128"/>
-      <c r="X128"/>
-      <c r="Y128"/>
-      <c r="Z128"/>
-      <c r="AA128"/>
-      <c r="AB128"/>
-      <c r="AC128"/>
-      <c r="AD128"/>
-    </row>
-    <row r="129" spans="2:30">
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="L129" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M129" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="P129" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q129" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R129" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
-      <c r="V129"/>
-      <c r="W129"/>
-      <c r="X129"/>
-      <c r="Y129"/>
-      <c r="Z129"/>
-      <c r="AA129"/>
-      <c r="AB129"/>
-      <c r="AC129"/>
-      <c r="AD129"/>
-    </row>
-    <row r="130" spans="2:30">
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="L130" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M130" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="20"/>
-      <c r="R130" s="11"/>
-      <c r="S130"/>
-      <c r="T130"/>
-      <c r="U130"/>
-      <c r="V130"/>
-      <c r="W130"/>
-      <c r="X130"/>
-      <c r="Y130"/>
-      <c r="Z130"/>
-      <c r="AA130"/>
-      <c r="AB130"/>
-      <c r="AC130"/>
-      <c r="AD130"/>
-    </row>
-    <row r="131" spans="2:30">
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="17">
-        <v>180</v>
-      </c>
-      <c r="L131" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M131" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="P131" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q131" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R131" s="11"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
-      <c r="X131"/>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131"/>
-      <c r="AB131"/>
-      <c r="AC131"/>
-      <c r="AD131"/>
-    </row>
-    <row r="132" spans="2:30">
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="17">
-        <v>90</v>
-      </c>
-      <c r="L132" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="M132" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q132" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R132" s="11"/>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="U132"/>
-      <c r="V132"/>
-      <c r="W132"/>
-      <c r="X132"/>
-      <c r="Y132"/>
-      <c r="Z132"/>
-      <c r="AA132"/>
-      <c r="AB132"/>
-      <c r="AC132"/>
-      <c r="AD132"/>
-    </row>
-    <row r="133" spans="2:30">
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="L133" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M133" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="P133" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="Q133" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R133" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="U133"/>
-      <c r="V133"/>
-      <c r="W133"/>
-      <c r="X133"/>
-      <c r="Y133"/>
-      <c r="Z133"/>
-      <c r="AA133"/>
-      <c r="AB133"/>
-      <c r="AC133"/>
-      <c r="AD133"/>
-    </row>
-    <row r="134" spans="2:30">
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="L134" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M134" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="P134" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q134" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="R134" s="11"/>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="U134"/>
-      <c r="V134"/>
-      <c r="W134"/>
-      <c r="X134"/>
-      <c r="Y134"/>
-      <c r="Z134"/>
-      <c r="AA134"/>
-      <c r="AB134"/>
-      <c r="AC134"/>
-      <c r="AD134"/>
-    </row>
-    <row r="135" spans="2:30">
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L135" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M135" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="20"/>
-      <c r="R135" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="U135"/>
-      <c r="V135"/>
-      <c r="W135"/>
-      <c r="X135"/>
-      <c r="Y135"/>
-      <c r="Z135"/>
-      <c r="AA135"/>
-      <c r="AB135"/>
-      <c r="AC135"/>
-      <c r="AD135"/>
-    </row>
-    <row r="136" spans="2:30">
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="19"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
-      <c r="W136"/>
-      <c r="X136"/>
-      <c r="Y136"/>
-      <c r="Z136"/>
-      <c r="AA136"/>
-      <c r="AB136"/>
-      <c r="AC136"/>
-      <c r="AD136"/>
-    </row>
-    <row r="137" spans="2:30">
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="19"/>
-      <c r="P137" s="11"/>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="11"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
-      <c r="W137"/>
-      <c r="X137"/>
-      <c r="Y137"/>
-      <c r="Z137"/>
-      <c r="AA137"/>
-      <c r="AB137"/>
-      <c r="AC137"/>
-      <c r="AD137"/>
-    </row>
-    <row r="138" spans="2:30">
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="19"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="20"/>
-      <c r="R138" s="11"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-      <c r="V138"/>
-      <c r="W138"/>
-      <c r="X138"/>
-      <c r="Y138"/>
-      <c r="Z138"/>
-      <c r="AA138"/>
-      <c r="AB138"/>
-      <c r="AC138"/>
-      <c r="AD138"/>
-    </row>
-    <row r="139" spans="2:30">
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="16"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="19"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="U139"/>
-      <c r="V139"/>
-      <c r="W139"/>
-      <c r="X139"/>
-      <c r="Y139"/>
-      <c r="Z139"/>
-      <c r="AA139"/>
-      <c r="AB139"/>
-      <c r="AC139"/>
-      <c r="AD139"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA5AAD-BAD9-48EA-AFE9-51ADE7EB5DC0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A158" sqref="A158"/>
       <selection pane="topRight" activeCell="A158" sqref="A158"/>
       <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -17071,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>17</v>
@@ -17086,7 +12028,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>6</v>
@@ -17131,7 +12073,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>9</v>
@@ -17140,7 +12082,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>167</v>
@@ -17151,58 +12093,60 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="70.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -17211,28 +12155,34 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>528</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>426</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="70.5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -17241,32 +12191,24 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>428</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
@@ -17277,78 +12219,80 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>458</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="N10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
@@ -17359,54 +12303,54 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -17419,78 +12363,78 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>472</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
@@ -17501,25 +12445,25 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -17531,25 +12475,25 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -17561,25 +12505,25 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -17591,25 +12535,25 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -17621,25 +12565,25 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -17651,25 +12595,25 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -17681,25 +12625,25 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -17711,82 +12655,80 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>626</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="52.9">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
@@ -17795,26 +12737,30 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>521</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="52.9">
+    <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>14</v>
@@ -17823,30 +12769,26 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>531</v>
+        <v>68</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>532</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I27" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" ht="35.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>14</v>
@@ -17855,26 +12797,28 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>68</v>
+        <v>649</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>652</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+        <v>574</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>650</v>
+      </c>
       <c r="K28" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>549</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="35.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>14</v>
@@ -17883,28 +12827,26 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>660</v>
+        <v>523</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>663</v>
+        <v>524</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>661</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="L29" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" ht="176.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
@@ -17913,26 +12855,32 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+        <v>657</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="176.25">
+      <c r="N30" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="70.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -17941,32 +12889,34 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>658</v>
+        <v>529</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>530</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>668</v>
+        <v>575</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>664</v>
+        <v>203</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>665</v>
+        <v>171</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M31" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="70.5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="35.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -17975,19 +12925,19 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>541</v>
+        <v>651</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>586</v>
+        <v>446</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>171</v>
+        <v>531</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>655</v>
@@ -17995,68 +12945,60 @@
       <c r="L32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>581</v>
-      </c>
+      <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="35.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1"/>
-      <c r="B34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1"/>
@@ -18067,18 +13009,18 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>167</v>
@@ -18095,21 +13037,21 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -18117,54 +13059,52 @@
     <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1"/>
@@ -18175,20 +13115,22 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L39" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
@@ -18201,74 +13143,74 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>193</v>
+        <v>541</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>197</v>
+        <v>542</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1"/>
-      <c r="B42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1"/>
@@ -18279,21 +13221,21 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>555</v>
+        <v>72</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -18307,21 +13249,21 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>72</v>
+        <v>532</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -18335,26 +13277,26 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" ht="35.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -18363,76 +13305,76 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>547</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="35.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1"/>
-      <c r="B48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1"/>
@@ -18443,18 +13385,18 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>167</v>
@@ -18471,21 +13413,21 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -18499,74 +13441,76 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>547</v>
+        <v>72</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14" ht="35.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="35.25">
       <c r="A54" s="1"/>
@@ -18577,28 +13521,30 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>75</v>
+        <v>588</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" ht="35.25">
+      <c r="N54" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -18607,28 +13553,24 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>601</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="L55" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="1" t="s">
-        <v>600</v>
-      </c>
+      <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1"/>
@@ -18639,18 +13581,18 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>117</v>
@@ -18667,18 +13609,18 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>117</v>
@@ -18695,18 +13637,18 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>117</v>
@@ -18723,18 +13665,18 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>117</v>
@@ -18751,18 +13693,18 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>117</v>
@@ -18779,18 +13721,18 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>117</v>
@@ -18807,18 +13749,18 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>117</v>
@@ -18835,18 +13777,18 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>117</v>
@@ -18863,18 +13805,18 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>117</v>
@@ -18891,18 +13833,18 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>117</v>
@@ -18919,18 +13861,18 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>117</v>
@@ -18947,18 +13889,18 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>117</v>
@@ -18966,55 +13908,51 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+    <row r="69" spans="1:14">
+      <c r="N69" s="2" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="N70" s="2" t="s">
-        <v>652</v>
-      </c>
+      <c r="A70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="4"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>14</v>
+        <v>446</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -19025,20 +13963,20 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1"/>
-      <c r="B72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="4"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -19049,20 +13987,20 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -19073,20 +14011,20 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1"/>
-      <c r="B74" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="4"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -19096,21 +14034,21 @@
       <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>447</v>
+        <v>14</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -19120,21 +14058,21 @@
       <c r="N75" s="4"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="4"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>14</v>
+        <v>446</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -19145,20 +14083,20 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1"/>
-      <c r="B77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="4"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -19169,20 +14107,20 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -19193,20 +14131,20 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1"/>
-      <c r="B79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="4"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -19217,27 +14155,31 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1"/>
@@ -19248,52 +14190,40 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1"/>
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1"/>
@@ -19311,22 +14241,6 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -19337,12 +14251,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF300C0-DBFA-4FB7-8D20-9C20F6CF4392}">
   <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>

--- a/input_data_spec.xlsx
+++ b/input_data_spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9337A-4F32-473D-8FC5-4E075B7B796C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E20E71-476F-412D-AEF0-AAA805169B1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11975,7 +11975,7 @@
       <selection activeCell="A158" sqref="A158"/>
       <selection pane="topRight" activeCell="A158" sqref="A158"/>
       <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -12677,10 +12677,10 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -12702,10 +12702,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
@@ -12730,10 +12730,10 @@
     </row>
     <row r="26" spans="1:14" ht="52.9">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -12762,10 +12762,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
@@ -12790,10 +12790,10 @@
     </row>
     <row r="28" spans="1:14" ht="35.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
@@ -12820,10 +12820,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
@@ -12848,10 +12848,10 @@
     </row>
     <row r="30" spans="1:14" ht="176.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -12882,10 +12882,10 @@
     </row>
     <row r="31" spans="1:14" ht="70.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
@@ -12918,10 +12918,10 @@
     </row>
     <row r="32" spans="1:14" ht="35.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
@@ -12952,10 +12952,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1"/>
-      <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="4"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -12975,10 +12975,10 @@
     <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>534</v>
@@ -13003,10 +13003,10 @@
     <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>535</v>
@@ -13031,10 +13031,10 @@
     <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>537</v>
@@ -13059,10 +13059,10 @@
     <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
         <v>183</v>
@@ -13084,10 +13084,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>51</v>
       </c>
@@ -13110,10 +13110,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>186</v>
       </c>
@@ -13138,10 +13138,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>540</v>
       </c>
@@ -13164,10 +13164,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1"/>
-      <c r="B41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
@@ -13187,10 +13187,10 @@
     <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>543</v>
@@ -13215,10 +13215,10 @@
     <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>545</v>
@@ -13243,10 +13243,10 @@
     <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>534</v>
@@ -13271,10 +13271,10 @@
     <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>537</v>
@@ -13299,10 +13299,10 @@
     <row r="46" spans="1:14" ht="35.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
         <v>546</v>
@@ -13328,10 +13328,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1"/>
-      <c r="B47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
@@ -13351,10 +13351,10 @@
     <row r="48" spans="1:14">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>534</v>
@@ -13379,10 +13379,10 @@
     <row r="49" spans="1:14">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>535</v>
@@ -13407,10 +13407,10 @@
     <row r="50" spans="1:14">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
         <v>537</v>
@@ -13435,10 +13435,10 @@
     <row r="51" spans="1:14">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>545</v>
@@ -13462,10 +13462,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="4"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
@@ -13485,10 +13485,10 @@
     <row r="53" spans="1:14" ht="35.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>552</v>
@@ -13515,10 +13515,10 @@
     <row r="54" spans="1:14" ht="35.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>586</v>
@@ -13547,10 +13547,10 @@
     <row r="55" spans="1:14">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
         <v>555</v>
@@ -13575,10 +13575,10 @@
     <row r="56" spans="1:14">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>557</v>
@@ -13603,10 +13603,10 @@
     <row r="57" spans="1:14">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>558</v>
@@ -13631,10 +13631,10 @@
     <row r="58" spans="1:14">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>607</v>
@@ -13659,10 +13659,10 @@
     <row r="59" spans="1:14">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>603</v>
@@ -13687,10 +13687,10 @@
     <row r="60" spans="1:14">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>608</v>
@@ -13715,10 +13715,10 @@
     <row r="61" spans="1:14">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>609</v>
@@ -13743,10 +13743,10 @@
     <row r="62" spans="1:14">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>604</v>
@@ -13771,10 +13771,10 @@
     <row r="63" spans="1:14">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>610</v>
@@ -13799,10 +13799,10 @@
     <row r="64" spans="1:14">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>605</v>
@@ -13827,10 +13827,10 @@
     <row r="65" spans="1:14">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>606</v>
@@ -13855,10 +13855,10 @@
     <row r="66" spans="1:14">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>611</v>
@@ -13883,10 +13883,10 @@
     <row r="67" spans="1:14">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>612</v>
